--- a/2-Empirical-Evidence/raw_data/Kansas.xlsx
+++ b/2-Empirical-Evidence/raw_data/Kansas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN200010000000003</t>
@@ -1798,10 +1814,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>5.8</v>
@@ -1896,10 +1924,20 @@
       <c r="AF5" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>394.0</v>
@@ -1994,10 +2032,20 @@
       <c r="AF6" t="n" s="8">
         <v>344.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>206.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>179.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>172.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>6450.0</v>
@@ -2092,10 +2140,20 @@
       <c r="AF7" t="n" s="8">
         <v>6086.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>6280.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>6127.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>5942.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>6844.0</v>
@@ -2190,10 +2248,20 @@
       <c r="AF8" t="n" s="8">
         <v>6430.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>6486.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>6306.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>6114.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>5.7</v>
@@ -2288,10 +2356,20 @@
       <c r="AF9" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>215.0</v>
@@ -2386,10 +2464,20 @@
       <c r="AF10" t="n" s="8">
         <v>174.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>3550.0</v>
@@ -2484,10 +2572,20 @@
       <c r="AF11" t="n" s="8">
         <v>4130.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>4512.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>4260.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>4316.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>3765.0</v>
@@ -2582,10 +2680,20 @@
       <c r="AF12" t="n" s="8">
         <v>4304.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>4632.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>4358.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>4409.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>6.1</v>
@@ -2680,10 +2788,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>500.0</v>
@@ -2778,10 +2896,20 @@
       <c r="AF14" t="n" s="8">
         <v>463.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>266.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>234.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>227.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>7650.0</v>
@@ -2876,10 +3004,20 @@
       <c r="AF15" t="n" s="8">
         <v>6426.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>6505.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>6555.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>6525.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>8150.0</v>
@@ -2974,10 +3112,20 @@
       <c r="AF16" t="n" s="8">
         <v>6889.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>6771.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>6789.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>6752.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>2.1</v>
@@ -3072,10 +3220,20 @@
       <c r="AF17" t="n" s="10">
         <v>3.2</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>60.0</v>
@@ -3170,10 +3328,20 @@
       <c r="AF18" t="n" s="8">
         <v>74.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>2769.0</v>
@@ -3268,10 +3436,20 @@
       <c r="AF19" t="n" s="8">
         <v>2249.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>2256.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>2235.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>2204.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>2829.0</v>
@@ -3366,10 +3544,20 @@
       <c r="AF20" t="n" s="8">
         <v>2323.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>2302.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>2281.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>2259.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>3.3</v>
@@ -3464,10 +3652,20 @@
       <c r="AF21" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>496.0</v>
@@ -3562,10 +3760,20 @@
       <c r="AF22" t="n" s="8">
         <v>624.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>403.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>341.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>341.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>14550.0</v>
@@ -3660,10 +3868,20 @@
       <c r="AF23" t="n" s="8">
         <v>13084.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>12925.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>12775.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>12451.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>15046.0</v>
@@ -3758,10 +3976,20 @@
       <c r="AF24" t="n" s="8">
         <v>13708.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>13328.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>13116.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>12792.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>5.4</v>
@@ -3856,10 +4084,20 @@
       <c r="AF25" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>366.0</v>
@@ -3954,10 +4192,20 @@
       <c r="AF26" t="n" s="8">
         <v>383.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>250.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>216.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>211.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>6379.0</v>
@@ -4052,10 +4300,20 @@
       <c r="AF27" t="n" s="8">
         <v>6344.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>6243.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>6039.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>5993.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>6745.0</v>
@@ -4150,10 +4408,20 @@
       <c r="AF28" t="n" s="8">
         <v>6727.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>6493.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>6255.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>6204.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>3.6</v>
@@ -4248,10 +4516,20 @@
       <c r="AF29" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>184.0</v>
@@ -4346,10 +4624,20 @@
       <c r="AF30" t="n" s="8">
         <v>226.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>143.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>4874.0</v>
@@ -4444,10 +4732,20 @@
       <c r="AF31" t="n" s="8">
         <v>4937.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>4990.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>4941.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>4448.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>5058.0</v>
@@ -4542,10 +4840,20 @@
       <c r="AF32" t="n" s="8">
         <v>5163.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>5133.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>5059.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>4577.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>3.3</v>
@@ -4640,10 +4948,20 @@
       <c r="AF33" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>863.0</v>
@@ -4738,10 +5056,20 @@
       <c r="AF34" t="n" s="8">
         <v>2127.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>1176.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>898.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>882.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>25151.0</v>
@@ -4836,10 +5164,20 @@
       <c r="AF35" t="n" s="8">
         <v>30435.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>31338.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>31763.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>32218.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>26014.0</v>
@@ -4934,10 +5272,20 @@
       <c r="AF36" t="n" s="8">
         <v>32562.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>32514.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>32661.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>33100.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>5.9</v>
@@ -5032,10 +5380,20 @@
       <c r="AF37" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>82.0</v>
@@ -5130,10 +5488,20 @@
       <c r="AF38" t="n" s="8">
         <v>79.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>1315.0</v>
@@ -5228,10 +5596,20 @@
       <c r="AF39" t="n" s="8">
         <v>1380.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>1343.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>1366.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>1209.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>1397.0</v>
@@ -5326,10 +5704,20 @@
       <c r="AF40" t="n" s="8">
         <v>1459.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>1377.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>1396.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>1238.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>4.0</v>
@@ -5424,10 +5812,20 @@
       <c r="AF41" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>71.0</v>
@@ -5522,10 +5920,20 @@
       <c r="AF42" t="n" s="8">
         <v>91.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>1686.0</v>
@@ -5620,10 +6028,20 @@
       <c r="AF43" t="n" s="8">
         <v>1397.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>1403.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>1384.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>1346.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>1757.0</v>
@@ -5718,10 +6136,20 @@
       <c r="AF44" t="n" s="8">
         <v>1488.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>1463.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>1424.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>1385.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>7.7</v>
@@ -5816,10 +6244,20 @@
       <c r="AF45" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>746.0</v>
@@ -5914,10 +6352,20 @@
       <c r="AF46" t="n" s="8">
         <v>520.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>301.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>255.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>269.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>8944.0</v>
@@ -6012,10 +6460,20 @@
       <c r="AF47" t="n" s="8">
         <v>9507.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>9593.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>9650.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>9743.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>9690.0</v>
@@ -6110,10 +6568,20 @@
       <c r="AF48" t="n" s="8">
         <v>10027.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>9894.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>9905.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>10012.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>0.9</v>
@@ -6208,10 +6676,20 @@
       <c r="AF49" t="n" s="10">
         <v>2.1</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>14.0</v>
@@ -6306,10 +6784,20 @@
       <c r="AF50" t="n" s="8">
         <v>28.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>1504.0</v>
@@ -6404,10 +6892,20 @@
       <c r="AF51" t="n" s="8">
         <v>1279.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>1269.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>1229.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>1188.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>1518.0</v>
@@ -6502,10 +7000,20 @@
       <c r="AF52" t="n" s="8">
         <v>1307.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>1294.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>1259.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>1219.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>1.1</v>
@@ -6600,10 +7108,20 @@
       <c r="AF53" t="n" s="10">
         <v>2.0</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>14.0</v>
@@ -6698,10 +7216,20 @@
       <c r="AF54" t="n" s="8">
         <v>23.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>1239.0</v>
@@ -6796,10 +7324,20 @@
       <c r="AF55" t="n" s="8">
         <v>1118.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>1110.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>1088.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>1082.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>1253.0</v>
@@ -6894,10 +7432,20 @@
       <c r="AF56" t="n" s="8">
         <v>1141.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>1131.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>1109.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>1104.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>3.4</v>
@@ -6992,10 +7540,20 @@
       <c r="AF57" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>149.0</v>
@@ -7090,10 +7648,20 @@
       <c r="AF58" t="n" s="8">
         <v>169.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>4183.0</v>
@@ -7188,10 +7756,20 @@
       <c r="AF59" t="n" s="8">
         <v>3658.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>3681.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>3639.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>3597.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>4332.0</v>
@@ -7286,10 +7864,20 @@
       <c r="AF60" t="n" s="8">
         <v>3827.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>3782.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>3735.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>3691.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>3.8</v>
@@ -7384,10 +7972,20 @@
       <c r="AF61" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>207.0</v>
@@ -7482,10 +8080,20 @@
       <c r="AF62" t="n" s="8">
         <v>156.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>5210.0</v>
@@ -7580,10 +8188,20 @@
       <c r="AF63" t="n" s="8">
         <v>3705.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>3780.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>3709.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>3609.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>5417.0</v>
@@ -7678,10 +8296,20 @@
       <c r="AF64" t="n" s="8">
         <v>3861.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>3893.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>3810.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>3712.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>5.2</v>
@@ -7776,10 +8404,20 @@
       <c r="AF65" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>206.0</v>
@@ -7874,10 +8512,20 @@
       <c r="AF66" t="n" s="8">
         <v>202.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>3776.0</v>
@@ -7972,10 +8620,20 @@
       <c r="AF67" t="n" s="8">
         <v>3752.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>3839.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>3663.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>3551.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>3982.0</v>
@@ -8070,10 +8728,20 @@
       <c r="AF68" t="n" s="8">
         <v>3954.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>3972.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>3792.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>3672.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>1.4</v>
@@ -8168,10 +8836,20 @@
       <c r="AF69" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>15.0</v>
@@ -8266,10 +8944,20 @@
       <c r="AF70" t="n" s="8">
         <v>29.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>1061.0</v>
@@ -8364,10 +9052,20 @@
       <c r="AF71" t="n" s="8">
         <v>841.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>875.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>849.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>835.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>1076.0</v>
@@ -8462,10 +9160,20 @@
       <c r="AF72" t="n" s="8">
         <v>870.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>895.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>868.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>857.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>6.2</v>
@@ -8560,10 +9268,20 @@
       <c r="AF73" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>1113.0</v>
@@ -8658,10 +9376,20 @@
       <c r="AF74" t="n" s="8">
         <v>1094.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>592.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>480.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>485.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>16820.0</v>
@@ -8756,10 +9484,20 @@
       <c r="AF75" t="n" s="8">
         <v>15774.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>16081.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>15935.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>15715.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>17933.0</v>
@@ -8854,10 +9592,20 @@
       <c r="AF76" t="n" s="8">
         <v>16868.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>16673.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>16415.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>16200.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>6.3</v>
@@ -8952,10 +9700,20 @@
       <c r="AF77" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>1036.0</v>
@@ -9050,10 +9808,20 @@
       <c r="AF78" t="n" s="8">
         <v>1042.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>622.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>547.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>543.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>15406.0</v>
@@ -9148,10 +9916,20 @@
       <c r="AF79" t="n" s="8">
         <v>17991.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>18276.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>18569.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>18559.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>16442.0</v>
@@ -9246,10 +10024,20 @@
       <c r="AF80" t="n" s="8">
         <v>19033.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>18898.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>19116.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>19102.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>2.2</v>
@@ -9344,10 +10132,20 @@
       <c r="AF81" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>44.0</v>
@@ -9442,10 +10240,20 @@
       <c r="AF82" t="n" s="8">
         <v>44.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>1947.0</v>
@@ -9540,10 +10348,20 @@
       <c r="AF83" t="n" s="8">
         <v>1187.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>1173.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>1156.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>1144.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>1991.0</v>
@@ -9638,10 +10456,20 @@
       <c r="AF84" t="n" s="8">
         <v>1231.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>1205.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>1189.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>1178.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>3.6</v>
@@ -9736,10 +10564,20 @@
       <c r="AF85" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>340.0</v>
@@ -9834,10 +10672,20 @@
       <c r="AF86" t="n" s="8">
         <v>424.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>279.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>238.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>245.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>9046.0</v>
@@ -9932,10 +10780,20 @@
       <c r="AF87" t="n" s="8">
         <v>8489.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>8772.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>8431.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>8374.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>9386.0</v>
@@ -10030,10 +10888,20 @@
       <c r="AF88" t="n" s="8">
         <v>8913.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>9051.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>8669.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>8619.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>6.9</v>
@@ -10128,10 +10996,20 @@
       <c r="AF89" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>260.0</v>
@@ -10226,10 +11104,20 @@
       <c r="AF90" t="n" s="8">
         <v>190.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>3523.0</v>
@@ -10324,10 +11212,20 @@
       <c r="AF91" t="n" s="8">
         <v>3967.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>3971.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>3921.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>3926.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>3783.0</v>
@@ -10422,10 +11320,20 @@
       <c r="AF92" t="n" s="8">
         <v>4157.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>4089.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>4023.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>4027.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>4.7</v>
@@ -10520,10 +11428,20 @@
       <c r="AF93" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>2094.0</v>
@@ -10618,10 +11536,20 @@
       <c r="AF94" t="n" s="8">
         <v>3813.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>2100.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>1688.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>1720.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>42562.0</v>
@@ -10716,10 +11644,20 @@
       <c r="AF95" t="n" s="8">
         <v>60493.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>62591.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>63789.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>64860.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>44656.0</v>
@@ -10814,10 +11752,20 @@
       <c r="AF96" t="n" s="8">
         <v>64306.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>64691.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>65477.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>66580.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>2.1</v>
@@ -10912,10 +11860,20 @@
       <c r="AF97" t="n" s="10">
         <v>2.9</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>39.0</v>
@@ -11010,10 +11968,20 @@
       <c r="AF98" t="n" s="8">
         <v>43.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>1806.0</v>
@@ -11108,10 +12076,20 @@
       <c r="AF99" t="n" s="8">
         <v>1423.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>1428.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>1359.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>1333.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>1845.0</v>
@@ -11206,10 +12184,20 @@
       <c r="AF100" t="n" s="8">
         <v>1466.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>1460.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>1390.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>1365.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>3.7</v>
@@ -11304,10 +12292,20 @@
       <c r="AF101" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>53.0</v>
@@ -11402,10 +12400,20 @@
       <c r="AF102" t="n" s="8">
         <v>57.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>1395.0</v>
@@ -11500,10 +12508,20 @@
       <c r="AF103" t="n" s="8">
         <v>1116.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>1121.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>1145.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>1140.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>1448.0</v>
@@ -11598,10 +12616,20 @@
       <c r="AF104" t="n" s="8">
         <v>1173.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>1156.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>1176.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>1169.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>3.3</v>
@@ -11696,10 +12724,20 @@
       <c r="AF105" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>473.0</v>
@@ -11794,10 +12832,20 @@
       <c r="AF106" t="n" s="8">
         <v>574.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>348.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>332.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>331.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>13667.0</v>
@@ -11892,10 +12940,20 @@
       <c r="AF107" t="n" s="8">
         <v>16543.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>16803.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>16733.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>16842.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>14140.0</v>
@@ -11990,10 +13048,20 @@
       <c r="AF108" t="n" s="8">
         <v>17117.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>17151.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>17065.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>17173.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>2.6</v>
@@ -12088,10 +13156,20 @@
       <c r="AF109" t="n" s="10">
         <v>3.1</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>74.0</v>
@@ -12186,10 +13264,20 @@
       <c r="AF110" t="n" s="8">
         <v>84.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>2825.0</v>
@@ -12284,10 +13372,20 @@
       <c r="AF111" t="n" s="8">
         <v>2633.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>2619.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>2570.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>2491.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>2899.0</v>
@@ -12382,10 +13480,20 @@
       <c r="AF112" t="n" s="8">
         <v>2717.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>2682.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>2630.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>2551.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>3.0</v>
@@ -12480,10 +13588,20 @@
       <c r="AF113" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>531.0</v>
@@ -12578,10 +13696,20 @@
       <c r="AF114" t="n" s="8">
         <v>681.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>448.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>419.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>425.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>17107.0</v>
@@ -12676,10 +13804,20 @@
       <c r="AF115" t="n" s="8">
         <v>19974.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>19858.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>20102.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>20139.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>17638.0</v>
@@ -12774,10 +13912,20 @@
       <c r="AF116" t="n" s="8">
         <v>20655.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>20306.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>20521.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>20564.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>2.9</v>
@@ -12872,10 +14020,20 @@
       <c r="AF117" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>410.0</v>
@@ -12970,10 +14128,20 @@
       <c r="AF118" t="n" s="8">
         <v>568.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>394.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>367.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>378.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>13739.0</v>
@@ -13068,10 +14236,20 @@
       <c r="AF119" t="n" s="8">
         <v>16773.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>17260.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>17482.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>17331.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>14149.0</v>
@@ -13166,10 +14344,20 @@
       <c r="AF120" t="n" s="8">
         <v>17341.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>17654.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>17849.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>17709.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>5.8</v>
@@ -13264,10 +14452,20 @@
       <c r="AF121" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>651.0</v>
@@ -13362,10 +14560,20 @@
       <c r="AF122" t="n" s="8">
         <v>763.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>467.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>359.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>377.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>10516.0</v>
@@ -13460,10 +14668,20 @@
       <c r="AF123" t="n" s="8">
         <v>13531.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>14072.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>14465.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>14621.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>11167.0</v>
@@ -13558,10 +14776,20 @@
       <c r="AF124" t="n" s="8">
         <v>14294.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>14539.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>14824.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>14998.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>7.5</v>
@@ -13656,10 +14884,20 @@
       <c r="AF125" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>813.0</v>
@@ -13754,10 +14992,20 @@
       <c r="AF126" t="n" s="8">
         <v>817.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>502.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>421.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>426.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>9965.0</v>
@@ -13852,10 +15100,20 @@
       <c r="AF127" t="n" s="8">
         <v>10885.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>10916.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>10921.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>10673.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>10778.0</v>
@@ -13950,10 +15208,20 @@
       <c r="AF128" t="n" s="8">
         <v>11702.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>11418.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>11342.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>11099.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>1.4</v>
@@ -14048,10 +15316,20 @@
       <c r="AF129" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>20.0</v>
@@ -14146,10 +15424,20 @@
       <c r="AF130" t="n" s="8">
         <v>38.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>1461.0</v>
@@ -14244,10 +15532,20 @@
       <c r="AF131" t="n" s="8">
         <v>1429.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>1429.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>1341.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>1276.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>1481.0</v>
@@ -14342,10 +15640,20 @@
       <c r="AF132" t="n" s="8">
         <v>1467.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>1458.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>1370.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>1306.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>2.2</v>
@@ -14440,10 +15748,20 @@
       <c r="AF133" t="n" s="10">
         <v>4.5</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>38.0</v>
@@ -14538,10 +15856,20 @@
       <c r="AF134" t="n" s="8">
         <v>51.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>1686.0</v>
@@ -14636,10 +15964,20 @@
       <c r="AF135" t="n" s="8">
         <v>1089.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>1100.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>1164.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>1123.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>1724.0</v>
@@ -14734,10 +16072,20 @@
       <c r="AF136" t="n" s="8">
         <v>1140.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>1134.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>1191.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>1153.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>2.1</v>
@@ -14832,10 +16180,20 @@
       <c r="AF137" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>78.0</v>
@@ -14930,10 +16288,20 @@
       <c r="AF138" t="n" s="8">
         <v>125.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>3581.0</v>
@@ -15028,10 +16396,20 @@
       <c r="AF139" t="n" s="8">
         <v>2988.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>2858.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>2726.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>2722.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>3659.0</v>
@@ -15126,10 +16504,20 @@
       <c r="AF140" t="n" s="8">
         <v>3113.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>2952.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>2806.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>2798.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>2.0</v>
@@ -15224,10 +16612,20 @@
       <c r="AF141" t="n" s="10">
         <v>2.2</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>54.0</v>
@@ -15322,10 +16720,20 @@
       <c r="AF142" t="n" s="8">
         <v>70.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>61.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>2595.0</v>
@@ -15420,10 +16828,20 @@
       <c r="AF143" t="n" s="8">
         <v>3180.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>3164.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>3113.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>3109.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>2649.0</v>
@@ -15518,10 +16936,20 @@
       <c r="AF144" t="n" s="8">
         <v>3250.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>3222.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>3174.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>3172.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>1.7</v>
@@ -15616,10 +17044,20 @@
       <c r="AF145" t="n" s="10">
         <v>1.7</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>15.0</v>
@@ -15714,10 +17152,20 @@
       <c r="AF146" t="n" s="8">
         <v>14.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>889.0</v>
@@ -15812,10 +17260,20 @@
       <c r="AF147" t="n" s="8">
         <v>808.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>814.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>777.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>751.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>904.0</v>
@@ -15910,10 +17368,20 @@
       <c r="AF148" t="n" s="8">
         <v>822.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>825.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>789.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>765.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>4.7</v>
@@ -16008,10 +17476,20 @@
       <c r="AF149" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>169.0</v>
@@ -16106,10 +17584,20 @@
       <c r="AF150" t="n" s="8">
         <v>163.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>88.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>83.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>3420.0</v>
@@ -16204,10 +17692,20 @@
       <c r="AF151" t="n" s="8">
         <v>2957.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>2944.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>2968.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>2938.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>3589.0</v>
@@ -16302,10 +17800,20 @@
       <c r="AF152" t="n" s="8">
         <v>3120.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>3032.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>3040.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>3021.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>1.0</v>
@@ -16400,10 +17908,20 @@
       <c r="AF153" t="n" s="10">
         <v>1.6</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>13.0</v>
@@ -16498,10 +18016,20 @@
       <c r="AF154" t="n" s="8">
         <v>26.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>1247.0</v>
@@ -16596,10 +18124,20 @@
       <c r="AF155" t="n" s="8">
         <v>1596.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>1606.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>1603.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>1590.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>1260.0</v>
@@ -16694,10 +18232,20 @@
       <c r="AF156" t="n" s="8">
         <v>1622.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>1629.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>1630.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>1619.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>2.3</v>
@@ -16792,10 +18340,20 @@
       <c r="AF157" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>77.0</v>
@@ -16890,10 +18448,20 @@
       <c r="AF158" t="n" s="8">
         <v>122.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>3222.0</v>
@@ -16988,10 +18556,20 @@
       <c r="AF159" t="n" s="8">
         <v>2675.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>2687.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>2724.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>2732.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>3299.0</v>
@@ -17086,10 +18664,20 @@
       <c r="AF160" t="n" s="8">
         <v>2797.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>2762.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>2782.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>2797.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>3.1</v>
@@ -17184,10 +18772,20 @@
       <c r="AF161" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>498.0</v>
@@ -17282,10 +18880,20 @@
       <c r="AF162" t="n" s="8">
         <v>890.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>515.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>428.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>506.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>15647.0</v>
@@ -17380,10 +18988,20 @@
       <c r="AF163" t="n" s="8">
         <v>15965.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>16433.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>16638.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>16866.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>16145.0</v>
@@ -17478,10 +19096,20 @@
       <c r="AF164" t="n" s="8">
         <v>16855.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>16948.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>17066.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>17372.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>2.4</v>
@@ -17576,10 +19204,20 @@
       <c r="AF165" t="n" s="10">
         <v>2.3</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>48.0</v>
@@ -17674,10 +19312,20 @@
       <c r="AF166" t="n" s="8">
         <v>51.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>1960.0</v>
@@ -17772,10 +19420,20 @@
       <c r="AF167" t="n" s="8">
         <v>2200.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>2186.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>2126.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>2073.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>2008.0</v>
@@ -17870,10 +19528,20 @@
       <c r="AF168" t="n" s="8">
         <v>2251.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>2228.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>2167.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>2115.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>1.4</v>
@@ -17968,10 +19636,20 @@
       <c r="AF169" t="n" s="10">
         <v>2.5</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>14.0</v>
@@ -18066,10 +19744,20 @@
       <c r="AF170" t="n" s="8">
         <v>26.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>959.0</v>
@@ -18164,10 +19852,20 @@
       <c r="AF171" t="n" s="8">
         <v>994.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>1014.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>1000.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>966.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>973.0</v>
@@ -18262,10 +19960,20 @@
       <c r="AF172" t="n" s="8">
         <v>1020.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>1033.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>1021.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>988.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>5.8</v>
@@ -18360,10 +20068,20 @@
       <c r="AF173" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>330.0</v>
@@ -18458,10 +20176,20 @@
       <c r="AF174" t="n" s="8">
         <v>386.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>196.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>169.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>172.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>5329.0</v>
@@ -18556,10 +20284,20 @@
       <c r="AF175" t="n" s="8">
         <v>6884.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>7073.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>7111.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>7189.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>5659.0</v>
@@ -18654,10 +20392,20 @@
       <c r="AF176" t="n" s="8">
         <v>7270.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>7269.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>7280.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>7361.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>5.0</v>
@@ -18752,10 +20500,20 @@
       <c r="AF177" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>404.0</v>
@@ -18850,10 +20608,20 @@
       <c r="AF178" t="n" s="8">
         <v>492.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>319.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>275.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>259.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>7745.0</v>
@@ -18948,10 +20716,20 @@
       <c r="AF179" t="n" s="8">
         <v>9794.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>10060.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>10098.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>10195.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>8149.0</v>
@@ -19046,10 +20824,20 @@
       <c r="AF180" t="n" s="8">
         <v>10286.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>10379.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>10373.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>10454.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>2.1</v>
@@ -19144,10 +20932,20 @@
       <c r="AF181" t="n" s="10">
         <v>2.9</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>43.0</v>
@@ -19242,10 +21040,20 @@
       <c r="AF182" t="n" s="8">
         <v>37.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>2044.0</v>
@@ -19340,10 +21148,20 @@
       <c r="AF183" t="n" s="8">
         <v>1218.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>1206.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>1164.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>1111.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>2087.0</v>
@@ -19438,10 +21256,20 @@
       <c r="AF184" t="n" s="8">
         <v>1255.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>1235.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>1194.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>1143.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>2.9</v>
@@ -19536,10 +21364,20 @@
       <c r="AF185" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>6125.0</v>
@@ -19634,10 +21472,20 @@
       <c r="AF186" t="n" s="8">
         <v>17232.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>9589.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>7931.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>8520.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>204820.0</v>
@@ -19732,10 +21580,20 @@
       <c r="AF187" t="n" s="8">
         <v>326064.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>335576.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>341423.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>344449.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>210945.0</v>
@@ -19830,10 +21688,20 @@
       <c r="AF188" t="n" s="8">
         <v>343296.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>345165.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>349354.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>352969.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>2.6</v>
@@ -19928,10 +21796,20 @@
       <c r="AF189" t="n" s="10">
         <v>2.5</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>52.0</v>
@@ -20026,10 +21904,20 @@
       <c r="AF190" t="n" s="8">
         <v>51.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>1981.0</v>
@@ -20124,10 +22012,20 @@
       <c r="AF191" t="n" s="8">
         <v>1983.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>2005.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>1966.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>1913.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>2033.0</v>
@@ -20222,10 +22120,20 @@
       <c r="AF192" t="n" s="8">
         <v>2034.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>2040.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>2004.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>1952.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>3.3</v>
@@ -20320,10 +22228,20 @@
       <c r="AF193" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>131.0</v>
@@ -20418,10 +22336,20 @@
       <c r="AF194" t="n" s="8">
         <v>172.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>3791.0</v>
@@ -20516,10 +22444,20 @@
       <c r="AF195" t="n" s="8">
         <v>3094.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>3173.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>3188.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>3215.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>3922.0</v>
@@ -20614,10 +22552,20 @@
       <c r="AF196" t="n" s="8">
         <v>3266.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>3276.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>3267.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>3304.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>1.6</v>
@@ -20712,10 +22660,20 @@
       <c r="AF197" t="n" s="10">
         <v>3.1</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>27.0</v>
@@ -20810,10 +22768,20 @@
       <c r="AF198" t="n" s="8">
         <v>39.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>1708.0</v>
@@ -20908,10 +22876,20 @@
       <c r="AF199" t="n" s="8">
         <v>1212.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>1203.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>1181.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>1155.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>1735.0</v>
@@ -21006,10 +22984,20 @@
       <c r="AF200" t="n" s="8">
         <v>1251.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>1229.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>1207.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>1185.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>6.9</v>
@@ -21104,10 +23092,20 @@
       <c r="AF201" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>800.0</v>
@@ -21202,10 +23200,20 @@
       <c r="AF202" t="n" s="8">
         <v>543.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>333.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>284.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>276.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>10771.0</v>
@@ -21300,10 +23308,20 @@
       <c r="AF203" t="n" s="8">
         <v>9158.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>9090.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>9157.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>9108.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>11571.0</v>
@@ -21398,10 +23416,20 @@
       <c r="AF204" t="n" s="8">
         <v>9701.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>9423.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>9441.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>9384.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>1.6</v>
@@ -21496,10 +23524,20 @@
       <c r="AF205" t="n" s="10">
         <v>2.9</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>18.0</v>
@@ -21594,10 +23632,20 @@
       <c r="AF206" t="n" s="8">
         <v>22.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>1110.0</v>
@@ -21692,10 +23740,20 @@
       <c r="AF207" t="n" s="8">
         <v>737.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>731.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>704.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>685.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>1128.0</v>
@@ -21790,10 +23848,20 @@
       <c r="AF208" t="n" s="8">
         <v>759.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>747.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>725.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>704.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>4.9</v>
@@ -21888,10 +23956,20 @@
       <c r="AF209" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>1259.0</v>
@@ -21986,10 +24064,20 @@
       <c r="AF210" t="n" s="8">
         <v>2120.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>1266.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>1075.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>1021.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>24254.0</v>
@@ -22084,10 +24172,20 @@
       <c r="AF211" t="n" s="8">
         <v>34703.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>35712.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>36362.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>36702.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>25513.0</v>
@@ -22182,10 +24280,20 @@
       <c r="AF212" t="n" s="8">
         <v>36823.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>36978.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>37437.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>37723.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>3.9</v>
@@ -22280,10 +24388,20 @@
       <c r="AF213" t="n" s="10">
         <v>2.9</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>70.0</v>
@@ -22378,10 +24496,20 @@
       <c r="AF214" t="n" s="8">
         <v>50.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>1736.0</v>
@@ -22476,10 +24604,20 @@
       <c r="AF215" t="n" s="8">
         <v>1692.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>1649.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>1644.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>1606.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>1806.0</v>
@@ -22574,10 +24712,20 @@
       <c r="AF216" t="n" s="8">
         <v>1742.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>1687.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>1683.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>1641.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>8.3</v>
@@ -22672,10 +24820,20 @@
       <c r="AF217" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>278.0</v>
@@ -22770,10 +24928,20 @@
       <c r="AF218" t="n" s="8">
         <v>310.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>192.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>169.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>170.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>3079.0</v>
@@ -22868,10 +25036,20 @@
       <c r="AF219" t="n" s="8">
         <v>4044.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>4154.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>4201.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>4224.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>3357.0</v>
@@ -22966,10 +25144,20 @@
       <c r="AF220" t="n" s="8">
         <v>4354.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>4346.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>4370.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>4394.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>1.7</v>
@@ -23064,10 +25252,20 @@
       <c r="AF221" t="n" s="10">
         <v>2.4</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>26.0</v>
@@ -23162,10 +25360,20 @@
       <c r="AF222" t="n" s="8">
         <v>38.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>1541.0</v>
@@ -23260,10 +25468,20 @@
       <c r="AF223" t="n" s="8">
         <v>1577.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>1591.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>1595.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>1607.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>1567.0</v>
@@ -23358,10 +25576,20 @@
       <c r="AF224" t="n" s="8">
         <v>1615.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>1618.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>1624.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>1636.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>4.9</v>
@@ -23456,10 +25684,20 @@
       <c r="AF225" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>891.0</v>
@@ -23554,10 +25792,20 @@
       <c r="AF226" t="n" s="8">
         <v>771.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>501.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>425.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>440.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>17419.0</v>
@@ -23652,10 +25900,20 @@
       <c r="AF227" t="n" s="8">
         <v>15925.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>16429.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>16647.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>16400.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>18310.0</v>
@@ -23750,10 +26008,20 @@
       <c r="AF228" t="n" s="8">
         <v>16696.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>16930.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>17072.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>16840.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>2.9</v>
@@ -23848,10 +26116,20 @@
       <c r="AF229" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>412.0</v>
@@ -23946,10 +26224,20 @@
       <c r="AF230" t="n" s="8">
         <v>582.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>378.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>329.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>346.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>13990.0</v>
@@ -24044,10 +26332,20 @@
       <c r="AF231" t="n" s="8">
         <v>16662.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>16797.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>17078.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>17250.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>14402.0</v>
@@ -24142,10 +26440,20 @@
       <c r="AF232" t="n" s="8">
         <v>17244.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>17175.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>17407.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>17596.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>2.8</v>
@@ -24240,10 +26548,20 @@
       <c r="AF233" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>175.0</v>
@@ -24338,10 +26656,20 @@
       <c r="AF234" t="n" s="8">
         <v>239.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>150.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>143.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>146.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>6175.0</v>
@@ -24436,10 +26764,20 @@
       <c r="AF235" t="n" s="8">
         <v>5740.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>5849.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>5835.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>5799.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>6350.0</v>
@@ -24534,10 +26872,20 @@
       <c r="AF236" t="n" s="8">
         <v>5979.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>5999.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>5978.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>5945.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>1.9</v>
@@ -24632,10 +26980,20 @@
       <c r="AF237" t="n" s="10">
         <v>3.0</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>102.0</v>
@@ -24730,10 +27088,20 @@
       <c r="AF238" t="n" s="8">
         <v>165.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>5243.0</v>
@@ -24828,10 +27196,20 @@
       <c r="AF239" t="n" s="8">
         <v>5342.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>5312.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>5226.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>5187.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>5345.0</v>
@@ -24926,10 +27304,20 @@
       <c r="AF240" t="n" s="8">
         <v>5507.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>5422.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>5330.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>5300.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>1.6</v>
@@ -25024,10 +27412,20 @@
       <c r="AF241" t="n" s="10">
         <v>2.7</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>36.0</v>
@@ -25122,10 +27520,20 @@
       <c r="AF242" t="n" s="8">
         <v>59.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>2161.0</v>
@@ -25220,10 +27628,20 @@
       <c r="AF243" t="n" s="8">
         <v>2100.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>2127.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>2083.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>2051.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>2197.0</v>
@@ -25318,10 +27736,20 @@
       <c r="AF244" t="n" s="8">
         <v>2159.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>2176.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>2123.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>2095.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>4.8</v>
@@ -25416,10 +27844,20 @@
       <c r="AF245" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>588.0</v>
@@ -25514,10 +27952,20 @@
       <c r="AF246" t="n" s="8">
         <v>874.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>539.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>455.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>468.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>11561.0</v>
@@ -25612,10 +28060,20 @@
       <c r="AF247" t="n" s="8">
         <v>16787.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>17273.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>17574.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>17730.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>12149.0</v>
@@ -25710,10 +28168,20 @@
       <c r="AF248" t="n" s="8">
         <v>17661.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>17812.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>18029.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>18198.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>3.0</v>
@@ -25808,10 +28276,20 @@
       <c r="AF249" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>105.0</v>
@@ -25906,10 +28384,20 @@
       <c r="AF250" t="n" s="8">
         <v>90.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>3383.0</v>
@@ -26004,10 +28492,20 @@
       <c r="AF251" t="n" s="8">
         <v>3352.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>3358.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>3293.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>3256.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>3488.0</v>
@@ -26102,10 +28600,20 @@
       <c r="AF252" t="n" s="8">
         <v>3442.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>3429.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>3358.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>3321.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>5.9</v>
@@ -26200,10 +28708,20 @@
       <c r="AF253" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>1073.0</v>
@@ -26298,10 +28816,20 @@
       <c r="AF254" t="n" s="8">
         <v>1091.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>593.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>444.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>439.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>17006.0</v>
@@ -26396,10 +28924,20 @@
       <c r="AF255" t="n" s="8">
         <v>13855.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>14108.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>14141.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>14293.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>18079.0</v>
@@ -26494,10 +29032,20 @@
       <c r="AF256" t="n" s="8">
         <v>14946.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>14701.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>14585.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>14732.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>3.4</v>
@@ -26592,10 +29140,20 @@
       <c r="AF257" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>100.0</v>
@@ -26690,10 +29248,20 @@
       <c r="AF258" t="n" s="8">
         <v>121.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>2833.0</v>
@@ -26788,10 +29356,20 @@
       <c r="AF259" t="n" s="8">
         <v>2971.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>3000.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>2938.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>2857.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>2933.0</v>
@@ -26886,10 +29464,20 @@
       <c r="AF260" t="n" s="8">
         <v>3092.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>3075.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>3007.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>2930.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="7">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B261" t="n" s="10">
         <v>1.8</v>
@@ -26984,10 +29572,20 @@
       <c r="AF261" t="n" s="10">
         <v>3.0</v>
       </c>
+      <c r="AG261" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH261" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI261" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="7">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B262" t="n" s="8">
         <v>30.0</v>
@@ -27082,10 +29680,20 @@
       <c r="AF262" t="n" s="8">
         <v>34.0</v>
       </c>
+      <c r="AG262" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AH262" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AI262" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="7">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B263" t="n" s="8">
         <v>1596.0</v>
@@ -27180,10 +29788,20 @@
       <c r="AF263" t="n" s="8">
         <v>1100.0</v>
       </c>
+      <c r="AG263" t="n" s="8">
+        <v>1105.0</v>
+      </c>
+      <c r="AH263" t="n" s="8">
+        <v>1101.0</v>
+      </c>
+      <c r="AI263" t="n" s="8">
+        <v>1075.0</v>
+      </c>
+      <c r="AJ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="7">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B264" t="n" s="8">
         <v>1626.0</v>
@@ -27278,10 +29896,20 @@
       <c r="AF264" t="n" s="8">
         <v>1134.0</v>
       </c>
+      <c r="AG264" t="n" s="8">
+        <v>1135.0</v>
+      </c>
+      <c r="AH264" t="n" s="8">
+        <v>1130.0</v>
+      </c>
+      <c r="AI264" t="n" s="8">
+        <v>1104.0</v>
+      </c>
+      <c r="AJ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="7">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B265" t="n" s="10">
         <v>1.5</v>
@@ -27376,10 +30004,20 @@
       <c r="AF265" t="n" s="10">
         <v>2.8</v>
       </c>
+      <c r="AG265" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AH265" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI265" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B266" t="n" s="8">
         <v>77.0</v>
@@ -27474,10 +30112,20 @@
       <c r="AF266" t="n" s="8">
         <v>156.0</v>
       </c>
+      <c r="AG266" t="n" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="AH266" t="n" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="AI266" t="n" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="AJ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="7">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B267" t="n" s="8">
         <v>5021.0</v>
@@ -27572,10 +30220,20 @@
       <c r="AF267" t="n" s="8">
         <v>5450.0</v>
       </c>
+      <c r="AG267" t="n" s="8">
+        <v>5464.0</v>
+      </c>
+      <c r="AH267" t="n" s="8">
+        <v>5523.0</v>
+      </c>
+      <c r="AI267" t="n" s="8">
+        <v>5795.0</v>
+      </c>
+      <c r="AJ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="7">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B268" t="n" s="8">
         <v>5098.0</v>
@@ -27670,10 +30328,20 @@
       <c r="AF268" t="n" s="8">
         <v>5606.0</v>
       </c>
+      <c r="AG268" t="n" s="8">
+        <v>5567.0</v>
+      </c>
+      <c r="AH268" t="n" s="8">
+        <v>5625.0</v>
+      </c>
+      <c r="AI268" t="n" s="8">
+        <v>5896.0</v>
+      </c>
+      <c r="AJ268"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="7">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B269" t="n" s="10">
         <v>4.4</v>
@@ -27768,10 +30436,20 @@
       <c r="AF269" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG269" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH269" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI269" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ269"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="7">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B270" t="n" s="8">
         <v>371.0</v>
@@ -27866,10 +30544,20 @@
       <c r="AF270" t="n" s="8">
         <v>396.0</v>
       </c>
+      <c r="AG270" t="n" s="8">
+        <v>268.0</v>
+      </c>
+      <c r="AH270" t="n" s="8">
+        <v>215.0</v>
+      </c>
+      <c r="AI270" t="n" s="8">
+        <v>218.0</v>
+      </c>
+      <c r="AJ270"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="7">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B271" t="n" s="8">
         <v>7984.0</v>
@@ -27964,10 +30652,20 @@
       <c r="AF271" t="n" s="8">
         <v>5856.0</v>
       </c>
+      <c r="AG271" t="n" s="8">
+        <v>5840.0</v>
+      </c>
+      <c r="AH271" t="n" s="8">
+        <v>5855.0</v>
+      </c>
+      <c r="AI271" t="n" s="8">
+        <v>5951.0</v>
+      </c>
+      <c r="AJ271"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="7">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B272" t="n" s="8">
         <v>8355.0</v>
@@ -28062,10 +30760,20 @@
       <c r="AF272" t="n" s="8">
         <v>6252.0</v>
       </c>
+      <c r="AG272" t="n" s="8">
+        <v>6108.0</v>
+      </c>
+      <c r="AH272" t="n" s="8">
+        <v>6070.0</v>
+      </c>
+      <c r="AI272" t="n" s="8">
+        <v>6169.0</v>
+      </c>
+      <c r="AJ272"/>
     </row>
     <row r="273">
       <c r="A273" t="s" s="7">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B273" t="n" s="10">
         <v>1.8</v>
@@ -28160,10 +30868,20 @@
       <c r="AF273" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG273" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH273" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI273" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ273"/>
     </row>
     <row r="274">
       <c r="A274" t="s" s="7">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B274" t="n" s="8">
         <v>36.0</v>
@@ -28258,10 +30976,20 @@
       <c r="AF274" t="n" s="8">
         <v>45.0</v>
       </c>
+      <c r="AG274" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AH274" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AI274" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AJ274"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="7">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B275" t="n" s="8">
         <v>1934.0</v>
@@ -28356,10 +31084,20 @@
       <c r="AF275" t="n" s="8">
         <v>1309.0</v>
       </c>
+      <c r="AG275" t="n" s="8">
+        <v>1285.0</v>
+      </c>
+      <c r="AH275" t="n" s="8">
+        <v>1296.0</v>
+      </c>
+      <c r="AI275" t="n" s="8">
+        <v>1258.0</v>
+      </c>
+      <c r="AJ275"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="7">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B276" t="n" s="8">
         <v>1970.0</v>
@@ -28454,10 +31192,20 @@
       <c r="AF276" t="n" s="8">
         <v>1354.0</v>
       </c>
+      <c r="AG276" t="n" s="8">
+        <v>1315.0</v>
+      </c>
+      <c r="AH276" t="n" s="8">
+        <v>1324.0</v>
+      </c>
+      <c r="AI276" t="n" s="8">
+        <v>1289.0</v>
+      </c>
+      <c r="AJ276"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="7">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B277" t="n" s="10">
         <v>1.6</v>
@@ -28552,10 +31300,20 @@
       <c r="AF277" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG277" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AH277" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI277" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ277"/>
     </row>
     <row r="278">
       <c r="A278" t="s" s="7">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B278" t="n" s="8">
         <v>47.0</v>
@@ -28650,10 +31408,20 @@
       <c r="AF278" t="n" s="8">
         <v>68.0</v>
       </c>
+      <c r="AG278" t="n" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="AH278" t="n" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="AI278" t="n" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="AJ278"/>
     </row>
     <row r="279">
       <c r="A279" t="s" s="7">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B279" t="n" s="8">
         <v>2850.0</v>
@@ -28748,10 +31516,20 @@
       <c r="AF279" t="n" s="8">
         <v>2588.0</v>
       </c>
+      <c r="AG279" t="n" s="8">
+        <v>2615.0</v>
+      </c>
+      <c r="AH279" t="n" s="8">
+        <v>2564.0</v>
+      </c>
+      <c r="AI279" t="n" s="8">
+        <v>2550.0</v>
+      </c>
+      <c r="AJ279"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="7">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B280" t="n" s="8">
         <v>2897.0</v>
@@ -28846,10 +31624,20 @@
       <c r="AF280" t="n" s="8">
         <v>2656.0</v>
       </c>
+      <c r="AG280" t="n" s="8">
+        <v>2664.0</v>
+      </c>
+      <c r="AH280" t="n" s="8">
+        <v>2613.0</v>
+      </c>
+      <c r="AI280" t="n" s="8">
+        <v>2602.0</v>
+      </c>
+      <c r="AJ280"/>
     </row>
     <row r="281">
       <c r="A281" t="s" s="7">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B281" t="n" s="10">
         <v>6.6</v>
@@ -28944,10 +31732,20 @@
       <c r="AF281" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG281" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH281" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI281" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ281"/>
     </row>
     <row r="282">
       <c r="A282" t="s" s="7">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B282" t="n" s="8">
         <v>497.0</v>
@@ -29042,10 +31840,20 @@
       <c r="AF282" t="n" s="8">
         <v>405.0</v>
       </c>
+      <c r="AG282" t="n" s="8">
+        <v>247.0</v>
+      </c>
+      <c r="AH282" t="n" s="8">
+        <v>222.0</v>
+      </c>
+      <c r="AI282" t="n" s="8">
+        <v>214.0</v>
+      </c>
+      <c r="AJ282"/>
     </row>
     <row r="283">
       <c r="A283" t="s" s="7">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B283" t="n" s="8">
         <v>6992.0</v>
@@ -29140,10 +31948,20 @@
       <c r="AF283" t="n" s="8">
         <v>7586.0</v>
       </c>
+      <c r="AG283" t="n" s="8">
+        <v>7791.0</v>
+      </c>
+      <c r="AH283" t="n" s="8">
+        <v>7803.0</v>
+      </c>
+      <c r="AI283" t="n" s="8">
+        <v>7868.0</v>
+      </c>
+      <c r="AJ283"/>
     </row>
     <row r="284">
       <c r="A284" t="s" s="7">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B284" t="n" s="8">
         <v>7489.0</v>
@@ -29238,10 +32056,20 @@
       <c r="AF284" t="n" s="8">
         <v>7991.0</v>
       </c>
+      <c r="AG284" t="n" s="8">
+        <v>8038.0</v>
+      </c>
+      <c r="AH284" t="n" s="8">
+        <v>8025.0</v>
+      </c>
+      <c r="AI284" t="n" s="8">
+        <v>8082.0</v>
+      </c>
+      <c r="AJ284"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="7">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B285" t="n" s="10">
         <v>1.6</v>
@@ -29336,10 +32164,20 @@
       <c r="AF285" t="n" s="10">
         <v>2.7</v>
       </c>
+      <c r="AG285" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AH285" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI285" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ285"/>
     </row>
     <row r="286">
       <c r="A286" t="s" s="7">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B286" t="n" s="8">
         <v>39.0</v>
@@ -29434,10 +32272,20 @@
       <c r="AF286" t="n" s="8">
         <v>54.0</v>
       </c>
+      <c r="AG286" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AH286" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AI286" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AJ286"/>
     </row>
     <row r="287">
       <c r="A287" t="s" s="7">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B287" t="n" s="8">
         <v>2379.0</v>
@@ -29532,10 +32380,20 @@
       <c r="AF287" t="n" s="8">
         <v>1928.0</v>
       </c>
+      <c r="AG287" t="n" s="8">
+        <v>1927.0</v>
+      </c>
+      <c r="AH287" t="n" s="8">
+        <v>1860.0</v>
+      </c>
+      <c r="AI287" t="n" s="8">
+        <v>1730.0</v>
+      </c>
+      <c r="AJ287"/>
     </row>
     <row r="288">
       <c r="A288" t="s" s="7">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B288" t="n" s="8">
         <v>2418.0</v>
@@ -29630,10 +32488,20 @@
       <c r="AF288" t="n" s="8">
         <v>1982.0</v>
       </c>
+      <c r="AG288" t="n" s="8">
+        <v>1965.0</v>
+      </c>
+      <c r="AH288" t="n" s="8">
+        <v>1899.0</v>
+      </c>
+      <c r="AI288" t="n" s="8">
+        <v>1769.0</v>
+      </c>
+      <c r="AJ288"/>
     </row>
     <row r="289">
       <c r="A289" t="s" s="7">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B289" t="n" s="10">
         <v>4.8</v>
@@ -29728,10 +32596,20 @@
       <c r="AF289" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG289" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH289" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI289" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ289"/>
     </row>
     <row r="290">
       <c r="A290" t="s" s="7">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B290" t="n" s="8">
         <v>134.0</v>
@@ -29826,10 +32704,20 @@
       <c r="AF290" t="n" s="8">
         <v>122.0</v>
       </c>
+      <c r="AG290" t="n" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="AH290" t="n" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="AI290" t="n" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="AJ290"/>
     </row>
     <row r="291">
       <c r="A291" t="s" s="7">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B291" t="n" s="8">
         <v>2650.0</v>
@@ -29924,10 +32812,20 @@
       <c r="AF291" t="n" s="8">
         <v>2864.0</v>
       </c>
+      <c r="AG291" t="n" s="8">
+        <v>2879.0</v>
+      </c>
+      <c r="AH291" t="n" s="8">
+        <v>2934.0</v>
+      </c>
+      <c r="AI291" t="n" s="8">
+        <v>2931.0</v>
+      </c>
+      <c r="AJ291"/>
     </row>
     <row r="292">
       <c r="A292" t="s" s="7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B292" t="n" s="8">
         <v>2784.0</v>
@@ -30022,10 +32920,20 @@
       <c r="AF292" t="n" s="8">
         <v>2986.0</v>
       </c>
+      <c r="AG292" t="n" s="8">
+        <v>2965.0</v>
+      </c>
+      <c r="AH292" t="n" s="8">
+        <v>3009.0</v>
+      </c>
+      <c r="AI292" t="n" s="8">
+        <v>3000.0</v>
+      </c>
+      <c r="AJ292"/>
     </row>
     <row r="293">
       <c r="A293" t="s" s="7">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B293" t="n" s="10">
         <v>2.1</v>
@@ -30120,10 +33028,20 @@
       <c r="AF293" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG293" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH293" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI293" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ293"/>
     </row>
     <row r="294">
       <c r="A294" t="s" s="7">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B294" t="n" s="8">
         <v>76.0</v>
@@ -30218,10 +33136,20 @@
       <c r="AF294" t="n" s="8">
         <v>103.0</v>
       </c>
+      <c r="AG294" t="n" s="8">
+        <v>66.0</v>
+      </c>
+      <c r="AH294" t="n" s="8">
+        <v>64.0</v>
+      </c>
+      <c r="AI294" t="n" s="8">
+        <v>68.0</v>
+      </c>
+      <c r="AJ294"/>
     </row>
     <row r="295">
       <c r="A295" t="s" s="7">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B295" t="n" s="8">
         <v>3585.0</v>
@@ -30316,10 +33244,20 @@
       <c r="AF295" t="n" s="8">
         <v>2761.0</v>
       </c>
+      <c r="AG295" t="n" s="8">
+        <v>2758.0</v>
+      </c>
+      <c r="AH295" t="n" s="8">
+        <v>2648.0</v>
+      </c>
+      <c r="AI295" t="n" s="8">
+        <v>2592.0</v>
+      </c>
+      <c r="AJ295"/>
     </row>
     <row r="296">
       <c r="A296" t="s" s="7">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B296" t="n" s="8">
         <v>3661.0</v>
@@ -30414,10 +33352,20 @@
       <c r="AF296" t="n" s="8">
         <v>2864.0</v>
       </c>
+      <c r="AG296" t="n" s="8">
+        <v>2824.0</v>
+      </c>
+      <c r="AH296" t="n" s="8">
+        <v>2712.0</v>
+      </c>
+      <c r="AI296" t="n" s="8">
+        <v>2660.0</v>
+      </c>
+      <c r="AJ296"/>
     </row>
     <row r="297">
       <c r="A297" t="s" s="7">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B297" t="n" s="10">
         <v>1.8</v>
@@ -30512,10 +33460,20 @@
       <c r="AF297" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG297" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH297" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI297" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ297"/>
     </row>
     <row r="298">
       <c r="A298" t="s" s="7">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B298" t="n" s="8">
         <v>55.0</v>
@@ -30610,10 +33568,20 @@
       <c r="AF298" t="n" s="8">
         <v>87.0</v>
       </c>
+      <c r="AG298" t="n" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="AH298" t="n" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="AI298" t="n" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="AJ298"/>
     </row>
     <row r="299">
       <c r="A299" t="s" s="7">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B299" t="n" s="8">
         <v>3081.0</v>
@@ -30708,10 +33676,20 @@
       <c r="AF299" t="n" s="8">
         <v>2567.0</v>
       </c>
+      <c r="AG299" t="n" s="8">
+        <v>2575.0</v>
+      </c>
+      <c r="AH299" t="n" s="8">
+        <v>2585.0</v>
+      </c>
+      <c r="AI299" t="n" s="8">
+        <v>2523.0</v>
+      </c>
+      <c r="AJ299"/>
     </row>
     <row r="300">
       <c r="A300" t="s" s="7">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B300" t="n" s="8">
         <v>3136.0</v>
@@ -30806,10 +33784,20 @@
       <c r="AF300" t="n" s="8">
         <v>2654.0</v>
       </c>
+      <c r="AG300" t="n" s="8">
+        <v>2634.0</v>
+      </c>
+      <c r="AH300" t="n" s="8">
+        <v>2644.0</v>
+      </c>
+      <c r="AI300" t="n" s="8">
+        <v>2579.0</v>
+      </c>
+      <c r="AJ300"/>
     </row>
     <row r="301">
       <c r="A301" t="s" s="7">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B301" t="n" s="10">
         <v>5.0</v>
@@ -30904,10 +33892,20 @@
       <c r="AF301" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG301" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH301" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI301" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ301"/>
     </row>
     <row r="302">
       <c r="A302" t="s" s="7">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B302" t="n" s="8">
         <v>417.0</v>
@@ -31002,10 +34000,20 @@
       <c r="AF302" t="n" s="8">
         <v>504.0</v>
       </c>
+      <c r="AG302" t="n" s="8">
+        <v>321.0</v>
+      </c>
+      <c r="AH302" t="n" s="8">
+        <v>298.0</v>
+      </c>
+      <c r="AI302" t="n" s="8">
+        <v>294.0</v>
+      </c>
+      <c r="AJ302"/>
     </row>
     <row r="303">
       <c r="A303" t="s" s="7">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B303" t="n" s="8">
         <v>7940.0</v>
@@ -31100,10 +34108,20 @@
       <c r="AF303" t="n" s="8">
         <v>11688.0</v>
       </c>
+      <c r="AG303" t="n" s="8">
+        <v>11955.0</v>
+      </c>
+      <c r="AH303" t="n" s="8">
+        <v>12186.0</v>
+      </c>
+      <c r="AI303" t="n" s="8">
+        <v>12382.0</v>
+      </c>
+      <c r="AJ303"/>
     </row>
     <row r="304">
       <c r="A304" t="s" s="7">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B304" t="n" s="8">
         <v>8357.0</v>
@@ -31198,10 +34216,20 @@
       <c r="AF304" t="n" s="8">
         <v>12192.0</v>
       </c>
+      <c r="AG304" t="n" s="8">
+        <v>12276.0</v>
+      </c>
+      <c r="AH304" t="n" s="8">
+        <v>12484.0</v>
+      </c>
+      <c r="AI304" t="n" s="8">
+        <v>12676.0</v>
+      </c>
+      <c r="AJ304"/>
     </row>
     <row r="305">
       <c r="A305" t="s" s="7">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B305" t="n" s="10">
         <v>2.9</v>
@@ -31296,10 +34324,20 @@
       <c r="AF305" t="n" s="10">
         <v>3.5</v>
       </c>
+      <c r="AG305" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH305" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI305" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ305"/>
     </row>
     <row r="306">
       <c r="A306" t="s" s="7">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B306" t="n" s="8">
         <v>140.0</v>
@@ -31394,10 +34432,20 @@
       <c r="AF306" t="n" s="8">
         <v>175.0</v>
       </c>
+      <c r="AG306" t="n" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="AH306" t="n" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="AI306" t="n" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="AJ306"/>
     </row>
     <row r="307">
       <c r="A307" t="s" s="7">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B307" t="n" s="8">
         <v>4705.0</v>
@@ -31492,10 +34540,20 @@
       <c r="AF307" t="n" s="8">
         <v>4770.0</v>
       </c>
+      <c r="AG307" t="n" s="8">
+        <v>4781.0</v>
+      </c>
+      <c r="AH307" t="n" s="8">
+        <v>4785.0</v>
+      </c>
+      <c r="AI307" t="n" s="8">
+        <v>4773.0</v>
+      </c>
+      <c r="AJ307"/>
     </row>
     <row r="308">
       <c r="A308" t="s" s="7">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B308" t="n" s="8">
         <v>4845.0</v>
@@ -31590,10 +34648,20 @@
       <c r="AF308" t="n" s="8">
         <v>4945.0</v>
       </c>
+      <c r="AG308" t="n" s="8">
+        <v>4895.0</v>
+      </c>
+      <c r="AH308" t="n" s="8">
+        <v>4888.0</v>
+      </c>
+      <c r="AI308" t="n" s="8">
+        <v>4876.0</v>
+      </c>
+      <c r="AJ308"/>
     </row>
     <row r="309">
       <c r="A309" t="s" s="7">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B309" t="n" s="10">
         <v>1.7</v>
@@ -31688,10 +34756,20 @@
       <c r="AF309" t="n" s="10">
         <v>2.5</v>
       </c>
+      <c r="AG309" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AH309" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI309" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ309"/>
     </row>
     <row r="310">
       <c r="A310" t="s" s="7">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B310" t="n" s="8">
         <v>27.0</v>
@@ -31786,10 +34864,20 @@
       <c r="AF310" t="n" s="8">
         <v>39.0</v>
       </c>
+      <c r="AG310" t="n" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="AH310" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AI310" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ310"/>
     </row>
     <row r="311">
       <c r="A311" t="s" s="7">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B311" t="n" s="8">
         <v>1607.0</v>
@@ -31884,10 +34972,20 @@
       <c r="AF311" t="n" s="8">
         <v>1512.0</v>
       </c>
+      <c r="AG311" t="n" s="8">
+        <v>1596.0</v>
+      </c>
+      <c r="AH311" t="n" s="8">
+        <v>1502.0</v>
+      </c>
+      <c r="AI311" t="n" s="8">
+        <v>1481.0</v>
+      </c>
+      <c r="AJ311"/>
     </row>
     <row r="312">
       <c r="A312" t="s" s="7">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B312" t="n" s="8">
         <v>1634.0</v>
@@ -31982,10 +35080,20 @@
       <c r="AF312" t="n" s="8">
         <v>1551.0</v>
       </c>
+      <c r="AG312" t="n" s="8">
+        <v>1622.0</v>
+      </c>
+      <c r="AH312" t="n" s="8">
+        <v>1530.0</v>
+      </c>
+      <c r="AI312" t="n" s="8">
+        <v>1510.0</v>
+      </c>
+      <c r="AJ312"/>
     </row>
     <row r="313">
       <c r="A313" t="s" s="7">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B313" t="n" s="10">
         <v>4.3</v>
@@ -32080,10 +35188,20 @@
       <c r="AF313" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG313" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH313" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI313" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ313"/>
     </row>
     <row r="314">
       <c r="A314" t="s" s="7">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B314" t="n" s="8">
         <v>1363.0</v>
@@ -32178,10 +35296,20 @@
       <c r="AF314" t="n" s="8">
         <v>1615.0</v>
       </c>
+      <c r="AG314" t="n" s="8">
+        <v>983.0</v>
+      </c>
+      <c r="AH314" t="n" s="8">
+        <v>814.0</v>
+      </c>
+      <c r="AI314" t="n" s="8">
+        <v>833.0</v>
+      </c>
+      <c r="AJ314"/>
     </row>
     <row r="315">
       <c r="A315" t="s" s="7">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B315" t="n" s="8">
         <v>29972.0</v>
@@ -32276,10 +35404,20 @@
       <c r="AF315" t="n" s="8">
         <v>28277.0</v>
       </c>
+      <c r="AG315" t="n" s="8">
+        <v>28690.0</v>
+      </c>
+      <c r="AH315" t="n" s="8">
+        <v>28347.0</v>
+      </c>
+      <c r="AI315" t="n" s="8">
+        <v>28095.0</v>
+      </c>
+      <c r="AJ315"/>
     </row>
     <row r="316">
       <c r="A316" t="s" s="7">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B316" t="n" s="8">
         <v>31335.0</v>
@@ -32374,10 +35512,20 @@
       <c r="AF316" t="n" s="8">
         <v>29892.0</v>
       </c>
+      <c r="AG316" t="n" s="8">
+        <v>29673.0</v>
+      </c>
+      <c r="AH316" t="n" s="8">
+        <v>29161.0</v>
+      </c>
+      <c r="AI316" t="n" s="8">
+        <v>28928.0</v>
+      </c>
+      <c r="AJ316"/>
     </row>
     <row r="317">
       <c r="A317" t="s" s="7">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B317" t="n" s="10">
         <v>1.3</v>
@@ -32472,10 +35620,20 @@
       <c r="AF317" t="n" s="10">
         <v>3.2</v>
       </c>
+      <c r="AG317" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH317" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI317" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ317"/>
     </row>
     <row r="318">
       <c r="A318" t="s" s="7">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B318" t="n" s="8">
         <v>43.0</v>
@@ -32570,10 +35728,20 @@
       <c r="AF318" t="n" s="8">
         <v>75.0</v>
       </c>
+      <c r="AG318" t="n" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="AH318" t="n" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="AI318" t="n" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="AJ318"/>
     </row>
     <row r="319">
       <c r="A319" t="s" s="7">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B319" t="n" s="8">
         <v>3162.0</v>
@@ -32668,10 +35836,20 @@
       <c r="AF319" t="n" s="8">
         <v>2250.0</v>
       </c>
+      <c r="AG319" t="n" s="8">
+        <v>2298.0</v>
+      </c>
+      <c r="AH319" t="n" s="8">
+        <v>2335.0</v>
+      </c>
+      <c r="AI319" t="n" s="8">
+        <v>2309.0</v>
+      </c>
+      <c r="AJ319"/>
     </row>
     <row r="320">
       <c r="A320" t="s" s="7">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B320" t="n" s="8">
         <v>3205.0</v>
@@ -32766,10 +35944,20 @@
       <c r="AF320" t="n" s="8">
         <v>2325.0</v>
       </c>
+      <c r="AG320" t="n" s="8">
+        <v>2354.0</v>
+      </c>
+      <c r="AH320" t="n" s="8">
+        <v>2385.0</v>
+      </c>
+      <c r="AI320" t="n" s="8">
+        <v>2358.0</v>
+      </c>
+      <c r="AJ320"/>
     </row>
     <row r="321">
       <c r="A321" t="s" s="7">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B321" t="n" s="10">
         <v>3.1</v>
@@ -32864,10 +36052,20 @@
       <c r="AF321" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG321" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH321" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI321" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ321"/>
     </row>
     <row r="322">
       <c r="A322" t="s" s="7">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B322" t="n" s="8">
         <v>149.0</v>
@@ -32962,10 +36160,20 @@
       <c r="AF322" t="n" s="8">
         <v>210.0</v>
       </c>
+      <c r="AG322" t="n" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="AH322" t="n" s="8">
+        <v>122.0</v>
+      </c>
+      <c r="AI322" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AJ322"/>
     </row>
     <row r="323">
       <c r="A323" t="s" s="7">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B323" t="n" s="8">
         <v>4695.0</v>
@@ -33060,10 +36268,20 @@
       <c r="AF323" t="n" s="8">
         <v>4897.0</v>
       </c>
+      <c r="AG323" t="n" s="8">
+        <v>5157.0</v>
+      </c>
+      <c r="AH323" t="n" s="8">
+        <v>5322.0</v>
+      </c>
+      <c r="AI323" t="n" s="8">
+        <v>5006.0</v>
+      </c>
+      <c r="AJ323"/>
     </row>
     <row r="324">
       <c r="A324" t="s" s="7">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B324" t="n" s="8">
         <v>4844.0</v>
@@ -33158,10 +36376,20 @@
       <c r="AF324" t="n" s="8">
         <v>5107.0</v>
       </c>
+      <c r="AG324" t="n" s="8">
+        <v>5291.0</v>
+      </c>
+      <c r="AH324" t="n" s="8">
+        <v>5444.0</v>
+      </c>
+      <c r="AI324" t="n" s="8">
+        <v>5136.0</v>
+      </c>
+      <c r="AJ324"/>
     </row>
     <row r="325">
       <c r="A325" t="s" s="7">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B325" t="n" s="10">
         <v>4.0</v>
@@ -33256,10 +36484,20 @@
       <c r="AF325" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG325" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH325" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI325" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ325"/>
     </row>
     <row r="326">
       <c r="A326" t="s" s="7">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B326" t="n" s="8">
         <v>1142.0</v>
@@ -33354,10 +36592,20 @@
       <c r="AF326" t="n" s="8">
         <v>1634.0</v>
       </c>
+      <c r="AG326" t="n" s="8">
+        <v>984.0</v>
+      </c>
+      <c r="AH326" t="n" s="8">
+        <v>917.0</v>
+      </c>
+      <c r="AI326" t="n" s="8">
+        <v>901.0</v>
+      </c>
+      <c r="AJ326"/>
     </row>
     <row r="327">
       <c r="A327" t="s" s="7">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B327" t="n" s="8">
         <v>27096.0</v>
@@ -33452,10 +36700,20 @@
       <c r="AF327" t="n" s="8">
         <v>32091.0</v>
       </c>
+      <c r="AG327" t="n" s="8">
+        <v>32848.0</v>
+      </c>
+      <c r="AH327" t="n" s="8">
+        <v>33610.0</v>
+      </c>
+      <c r="AI327" t="n" s="8">
+        <v>34229.0</v>
+      </c>
+      <c r="AJ327"/>
     </row>
     <row r="328">
       <c r="A328" t="s" s="7">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B328" t="n" s="8">
         <v>28238.0</v>
@@ -33550,10 +36808,20 @@
       <c r="AF328" t="n" s="8">
         <v>33725.0</v>
       </c>
+      <c r="AG328" t="n" s="8">
+        <v>33832.0</v>
+      </c>
+      <c r="AH328" t="n" s="8">
+        <v>34527.0</v>
+      </c>
+      <c r="AI328" t="n" s="8">
+        <v>35130.0</v>
+      </c>
+      <c r="AJ328"/>
     </row>
     <row r="329">
       <c r="A329" t="s" s="7">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B329" t="n" s="10">
         <v>2.7</v>
@@ -33648,10 +36916,20 @@
       <c r="AF329" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG329" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH329" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI329" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ329"/>
     </row>
     <row r="330">
       <c r="A330" t="s" s="7">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B330" t="n" s="8">
         <v>73.0</v>
@@ -33746,10 +37024,20 @@
       <c r="AF330" t="n" s="8">
         <v>98.0</v>
       </c>
+      <c r="AG330" t="n" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="AH330" t="n" s="8">
+        <v>61.0</v>
+      </c>
+      <c r="AI330" t="n" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="AJ330"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="7">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B331" t="n" s="8">
         <v>2676.0</v>
@@ -33844,10 +37132,20 @@
       <c r="AF331" t="n" s="8">
         <v>2416.0</v>
       </c>
+      <c r="AG331" t="n" s="8">
+        <v>2387.0</v>
+      </c>
+      <c r="AH331" t="n" s="8">
+        <v>2346.0</v>
+      </c>
+      <c r="AI331" t="n" s="8">
+        <v>2278.0</v>
+      </c>
+      <c r="AJ331"/>
     </row>
     <row r="332">
       <c r="A332" t="s" s="7">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B332" t="n" s="8">
         <v>2749.0</v>
@@ -33942,10 +37240,20 @@
       <c r="AF332" t="n" s="8">
         <v>2514.0</v>
       </c>
+      <c r="AG332" t="n" s="8">
+        <v>2449.0</v>
+      </c>
+      <c r="AH332" t="n" s="8">
+        <v>2407.0</v>
+      </c>
+      <c r="AI332" t="n" s="8">
+        <v>2338.0</v>
+      </c>
+      <c r="AJ332"/>
     </row>
     <row r="333">
       <c r="A333" t="s" s="7">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B333" t="n" s="10">
         <v>1.9</v>
@@ -34040,10 +37348,20 @@
       <c r="AF333" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG333" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH333" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI333" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ333"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="7">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B334" t="n" s="8">
         <v>34.0</v>
@@ -34138,10 +37456,20 @@
       <c r="AF334" t="n" s="8">
         <v>72.0</v>
       </c>
+      <c r="AG334" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AH334" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AI334" t="n" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AJ334"/>
     </row>
     <row r="335">
       <c r="A335" t="s" s="7">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B335" t="n" s="8">
         <v>1781.0</v>
@@ -34236,10 +37564,20 @@
       <c r="AF335" t="n" s="8">
         <v>1508.0</v>
       </c>
+      <c r="AG335" t="n" s="8">
+        <v>1543.0</v>
+      </c>
+      <c r="AH335" t="n" s="8">
+        <v>1581.0</v>
+      </c>
+      <c r="AI335" t="n" s="8">
+        <v>1584.0</v>
+      </c>
+      <c r="AJ335"/>
     </row>
     <row r="336">
       <c r="A336" t="s" s="7">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B336" t="n" s="8">
         <v>1815.0</v>
@@ -34334,10 +37672,20 @@
       <c r="AF336" t="n" s="8">
         <v>1580.0</v>
       </c>
+      <c r="AG336" t="n" s="8">
+        <v>1582.0</v>
+      </c>
+      <c r="AH336" t="n" s="8">
+        <v>1616.0</v>
+      </c>
+      <c r="AI336" t="n" s="8">
+        <v>1620.0</v>
+      </c>
+      <c r="AJ336"/>
     </row>
     <row r="337">
       <c r="A337" t="s" s="7">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B337" t="n" s="10">
         <v>2.5</v>
@@ -34432,10 +37780,20 @@
       <c r="AF337" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG337" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH337" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI337" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ337"/>
     </row>
     <row r="338">
       <c r="A338" t="s" s="7">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B338" t="n" s="8">
         <v>94.0</v>
@@ -34530,10 +37888,20 @@
       <c r="AF338" t="n" s="8">
         <v>136.0</v>
       </c>
+      <c r="AG338" t="n" s="8">
+        <v>85.0</v>
+      </c>
+      <c r="AH338" t="n" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="AI338" t="n" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="AJ338"/>
     </row>
     <row r="339">
       <c r="A339" t="s" s="7">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B339" t="n" s="8">
         <v>3650.0</v>
@@ -34628,10 +37996,20 @@
       <c r="AF339" t="n" s="8">
         <v>3187.0</v>
       </c>
+      <c r="AG339" t="n" s="8">
+        <v>3260.0</v>
+      </c>
+      <c r="AH339" t="n" s="8">
+        <v>3221.0</v>
+      </c>
+      <c r="AI339" t="n" s="8">
+        <v>3212.0</v>
+      </c>
+      <c r="AJ339"/>
     </row>
     <row r="340">
       <c r="A340" t="s" s="7">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B340" t="n" s="8">
         <v>3744.0</v>
@@ -34726,10 +38104,20 @@
       <c r="AF340" t="n" s="8">
         <v>3323.0</v>
       </c>
+      <c r="AG340" t="n" s="8">
+        <v>3345.0</v>
+      </c>
+      <c r="AH340" t="n" s="8">
+        <v>3295.0</v>
+      </c>
+      <c r="AI340" t="n" s="8">
+        <v>3289.0</v>
+      </c>
+      <c r="AJ340"/>
     </row>
     <row r="341">
       <c r="A341" t="s" s="7">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B341" t="n" s="10">
         <v>3.9</v>
@@ -34824,10 +38212,20 @@
       <c r="AF341" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG341" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH341" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI341" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ341"/>
     </row>
     <row r="342">
       <c r="A342" t="s" s="7">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B342" t="n" s="8">
         <v>1044.0</v>
@@ -34922,10 +38320,20 @@
       <c r="AF342" t="n" s="8">
         <v>1600.0</v>
       </c>
+      <c r="AG342" t="n" s="8">
+        <v>911.0</v>
+      </c>
+      <c r="AH342" t="n" s="8">
+        <v>721.0</v>
+      </c>
+      <c r="AI342" t="n" s="8">
+        <v>732.0</v>
+      </c>
+      <c r="AJ342"/>
     </row>
     <row r="343">
       <c r="A343" t="s" s="7">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B343" t="n" s="8">
         <v>25922.0</v>
@@ -35020,10 +38428,20 @@
       <c r="AF343" t="n" s="8">
         <v>28040.0</v>
       </c>
+      <c r="AG343" t="n" s="8">
+        <v>28512.0</v>
+      </c>
+      <c r="AH343" t="n" s="8">
+        <v>29412.0</v>
+      </c>
+      <c r="AI343" t="n" s="8">
+        <v>29383.0</v>
+      </c>
+      <c r="AJ343"/>
     </row>
     <row r="344">
       <c r="A344" t="s" s="7">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B344" t="n" s="8">
         <v>26966.0</v>
@@ -35118,10 +38536,20 @@
       <c r="AF344" t="n" s="8">
         <v>29640.0</v>
       </c>
+      <c r="AG344" t="n" s="8">
+        <v>29423.0</v>
+      </c>
+      <c r="AH344" t="n" s="8">
+        <v>30133.0</v>
+      </c>
+      <c r="AI344" t="n" s="8">
+        <v>30115.0</v>
+      </c>
+      <c r="AJ344"/>
     </row>
     <row r="345">
       <c r="A345" t="s" s="7">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B345" t="n" s="10">
         <v>1.9</v>
@@ -35216,10 +38644,20 @@
       <c r="AF345" t="n" s="10">
         <v>2.4</v>
       </c>
+      <c r="AG345" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AH345" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI345" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ345"/>
     </row>
     <row r="346">
       <c r="A346" t="s" s="7">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B346" t="n" s="8">
         <v>51.0</v>
@@ -35314,10 +38752,20 @@
       <c r="AF346" t="n" s="8">
         <v>68.0</v>
       </c>
+      <c r="AG346" t="n" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="AH346" t="n" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="AI346" t="n" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="AJ346"/>
     </row>
     <row r="347">
       <c r="A347" t="s" s="7">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B347" t="n" s="8">
         <v>2645.0</v>
@@ -35412,10 +38860,20 @@
       <c r="AF347" t="n" s="8">
         <v>2769.0</v>
       </c>
+      <c r="AG347" t="n" s="8">
+        <v>2789.0</v>
+      </c>
+      <c r="AH347" t="n" s="8">
+        <v>2690.0</v>
+      </c>
+      <c r="AI347" t="n" s="8">
+        <v>2562.0</v>
+      </c>
+      <c r="AJ347"/>
     </row>
     <row r="348">
       <c r="A348" t="s" s="7">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B348" t="n" s="8">
         <v>2696.0</v>
@@ -35510,10 +38968,20 @@
       <c r="AF348" t="n" s="8">
         <v>2837.0</v>
       </c>
+      <c r="AG348" t="n" s="8">
+        <v>2835.0</v>
+      </c>
+      <c r="AH348" t="n" s="8">
+        <v>2740.0</v>
+      </c>
+      <c r="AI348" t="n" s="8">
+        <v>2613.0</v>
+      </c>
+      <c r="AJ348"/>
     </row>
     <row r="349">
       <c r="A349" t="s" s="7">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B349" t="n" s="10">
         <v>4.2</v>
@@ -35608,10 +39076,20 @@
       <c r="AF349" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG349" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH349" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI349" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ349"/>
     </row>
     <row r="350">
       <c r="A350" t="s" s="7">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B350" t="n" s="8">
         <v>8980.0</v>
@@ -35706,10 +39184,20 @@
       <c r="AF350" t="n" s="8">
         <v>22651.0</v>
       </c>
+      <c r="AG350" t="n" s="8">
+        <v>11926.0</v>
+      </c>
+      <c r="AH350" t="n" s="8">
+        <v>7917.0</v>
+      </c>
+      <c r="AI350" t="n" s="8">
+        <v>7613.0</v>
+      </c>
+      <c r="AJ350"/>
     </row>
     <row r="351">
       <c r="A351" t="s" s="7">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B351" t="n" s="8">
         <v>206941.0</v>
@@ -35804,10 +39292,20 @@
       <c r="AF351" t="n" s="8">
         <v>236433.0</v>
       </c>
+      <c r="AG351" t="n" s="8">
+        <v>243576.0</v>
+      </c>
+      <c r="AH351" t="n" s="8">
+        <v>247091.0</v>
+      </c>
+      <c r="AI351" t="n" s="8">
+        <v>250765.0</v>
+      </c>
+      <c r="AJ351"/>
     </row>
     <row r="352">
       <c r="A352" t="s" s="7">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B352" t="n" s="8">
         <v>215921.0</v>
@@ -35902,10 +39400,20 @@
       <c r="AF352" t="n" s="8">
         <v>259084.0</v>
       </c>
+      <c r="AG352" t="n" s="8">
+        <v>255502.0</v>
+      </c>
+      <c r="AH352" t="n" s="8">
+        <v>255008.0</v>
+      </c>
+      <c r="AI352" t="n" s="8">
+        <v>258378.0</v>
+      </c>
+      <c r="AJ352"/>
     </row>
     <row r="353">
       <c r="A353" t="s" s="7">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B353" t="n" s="10">
         <v>4.0</v>
@@ -36000,10 +39508,20 @@
       <c r="AF353" t="n" s="10">
         <v>4.2</v>
       </c>
+      <c r="AG353" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH353" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI353" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ353"/>
     </row>
     <row r="354">
       <c r="A354" t="s" s="7">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B354" t="n" s="8">
         <v>394.0</v>
@@ -36098,10 +39616,20 @@
       <c r="AF354" t="n" s="8">
         <v>412.0</v>
       </c>
+      <c r="AG354" t="n" s="8">
+        <v>286.0</v>
+      </c>
+      <c r="AH354" t="n" s="8">
+        <v>247.0</v>
+      </c>
+      <c r="AI354" t="n" s="8">
+        <v>243.0</v>
+      </c>
+      <c r="AJ354"/>
     </row>
     <row r="355">
       <c r="A355" t="s" s="7">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B355" t="n" s="8">
         <v>9451.0</v>
@@ -36196,10 +39724,20 @@
       <c r="AF355" t="n" s="8">
         <v>9434.0</v>
       </c>
+      <c r="AG355" t="n" s="8">
+        <v>9598.0</v>
+      </c>
+      <c r="AH355" t="n" s="8">
+        <v>9558.0</v>
+      </c>
+      <c r="AI355" t="n" s="8">
+        <v>9444.0</v>
+      </c>
+      <c r="AJ355"/>
     </row>
     <row r="356">
       <c r="A356" t="s" s="7">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B356" t="n" s="8">
         <v>9845.0</v>
@@ -36294,10 +39832,20 @@
       <c r="AF356" t="n" s="8">
         <v>9846.0</v>
       </c>
+      <c r="AG356" t="n" s="8">
+        <v>9884.0</v>
+      </c>
+      <c r="AH356" t="n" s="8">
+        <v>9805.0</v>
+      </c>
+      <c r="AI356" t="n" s="8">
+        <v>9687.0</v>
+      </c>
+      <c r="AJ356"/>
     </row>
     <row r="357">
       <c r="A357" t="s" s="7">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B357" t="n" s="10">
         <v>4.7</v>
@@ -36392,10 +39940,20 @@
       <c r="AF357" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG357" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH357" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI357" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ357"/>
     </row>
     <row r="358">
       <c r="A358" t="s" s="7">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B358" t="n" s="8">
         <v>4113.0</v>
@@ -36490,10 +40048,20 @@
       <c r="AF358" t="n" s="8">
         <v>5300.0</v>
       </c>
+      <c r="AG358" t="n" s="8">
+        <v>2938.0</v>
+      </c>
+      <c r="AH358" t="n" s="8">
+        <v>2492.0</v>
+      </c>
+      <c r="AI358" t="n" s="8">
+        <v>2518.0</v>
+      </c>
+      <c r="AJ358"/>
     </row>
     <row r="359">
       <c r="A359" t="s" s="7">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B359" t="n" s="8">
         <v>82758.0</v>
@@ -36588,10 +40156,20 @@
       <c r="AF359" t="n" s="8">
         <v>86272.0</v>
       </c>
+      <c r="AG359" t="n" s="8">
+        <v>88732.0</v>
+      </c>
+      <c r="AH359" t="n" s="8">
+        <v>89329.0</v>
+      </c>
+      <c r="AI359" t="n" s="8">
+        <v>90376.0</v>
+      </c>
+      <c r="AJ359"/>
     </row>
     <row r="360">
       <c r="A360" t="s" s="7">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B360" t="n" s="8">
         <v>86871.0</v>
@@ -36686,10 +40264,20 @@
       <c r="AF360" t="n" s="8">
         <v>91572.0</v>
       </c>
+      <c r="AG360" t="n" s="8">
+        <v>91670.0</v>
+      </c>
+      <c r="AH360" t="n" s="8">
+        <v>91821.0</v>
+      </c>
+      <c r="AI360" t="n" s="8">
+        <v>92894.0</v>
+      </c>
+      <c r="AJ360"/>
     </row>
     <row r="361">
       <c r="A361" t="s" s="7">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B361" t="n" s="10">
         <v>1.3</v>
@@ -36784,10 +40372,20 @@
       <c r="AF361" t="n" s="10">
         <v>2.3</v>
       </c>
+      <c r="AG361" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AH361" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI361" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ361"/>
     </row>
     <row r="362">
       <c r="A362" t="s" s="7">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B362" t="n" s="8">
         <v>19.0</v>
@@ -36882,10 +40480,20 @@
       <c r="AF362" t="n" s="8">
         <v>34.0</v>
       </c>
+      <c r="AG362" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AH362" t="n" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="AI362" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ362"/>
     </row>
     <row r="363">
       <c r="A363" t="s" s="7">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B363" t="n" s="8">
         <v>1481.0</v>
@@ -36980,10 +40588,20 @@
       <c r="AF363" t="n" s="8">
         <v>1438.0</v>
       </c>
+      <c r="AG363" t="n" s="8">
+        <v>1434.0</v>
+      </c>
+      <c r="AH363" t="n" s="8">
+        <v>1421.0</v>
+      </c>
+      <c r="AI363" t="n" s="8">
+        <v>1364.0</v>
+      </c>
+      <c r="AJ363"/>
     </row>
     <row r="364">
       <c r="A364" t="s" s="7">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B364" t="n" s="8">
         <v>1500.0</v>
@@ -37078,10 +40696,20 @@
       <c r="AF364" t="n" s="8">
         <v>1472.0</v>
       </c>
+      <c r="AG364" t="n" s="8">
+        <v>1462.0</v>
+      </c>
+      <c r="AH364" t="n" s="8">
+        <v>1448.0</v>
+      </c>
+      <c r="AI364" t="n" s="8">
+        <v>1393.0</v>
+      </c>
+      <c r="AJ364"/>
     </row>
     <row r="365">
       <c r="A365" t="s" s="7">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B365" t="n" s="10">
         <v>2.7</v>
@@ -37176,10 +40804,20 @@
       <c r="AF365" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG365" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH365" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI365" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ365"/>
     </row>
     <row r="366">
       <c r="A366" t="s" s="7">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B366" t="n" s="8">
         <v>95.0</v>
@@ -37274,10 +40912,20 @@
       <c r="AF366" t="n" s="8">
         <v>94.0</v>
       </c>
+      <c r="AG366" t="n" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="AH366" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AI366" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AJ366"/>
     </row>
     <row r="367">
       <c r="A367" t="s" s="7">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B367" t="n" s="8">
         <v>3457.0</v>
@@ -37372,10 +41020,20 @@
       <c r="AF367" t="n" s="8">
         <v>2789.0</v>
       </c>
+      <c r="AG367" t="n" s="8">
+        <v>2784.0</v>
+      </c>
+      <c r="AH367" t="n" s="8">
+        <v>2721.0</v>
+      </c>
+      <c r="AI367" t="n" s="8">
+        <v>2685.0</v>
+      </c>
+      <c r="AJ367"/>
     </row>
     <row r="368">
       <c r="A368" t="s" s="7">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B368" t="n" s="8">
         <v>3552.0</v>
@@ -37470,10 +41128,20 @@
       <c r="AF368" t="n" s="8">
         <v>2883.0</v>
       </c>
+      <c r="AG368" t="n" s="8">
+        <v>2859.0</v>
+      </c>
+      <c r="AH368" t="n" s="8">
+        <v>2784.0</v>
+      </c>
+      <c r="AI368" t="n" s="8">
+        <v>2750.0</v>
+      </c>
+      <c r="AJ368"/>
     </row>
     <row r="369">
       <c r="A369" t="s" s="7">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B369" t="n" s="10">
         <v>1.6</v>
@@ -37568,10 +41236,20 @@
       <c r="AF369" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG369" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AH369" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI369" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ369"/>
     </row>
     <row r="370">
       <c r="A370" t="s" s="7">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B370" t="n" s="8">
         <v>40.0</v>
@@ -37666,10 +41344,20 @@
       <c r="AF370" t="n" s="8">
         <v>52.0</v>
       </c>
+      <c r="AG370" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AH370" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AI370" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AJ370"/>
     </row>
     <row r="371">
       <c r="A371" t="s" s="7">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B371" t="n" s="8">
         <v>2399.0</v>
@@ -37764,10 +41452,20 @@
       <c r="AF371" t="n" s="8">
         <v>1948.0</v>
       </c>
+      <c r="AG371" t="n" s="8">
+        <v>1970.0</v>
+      </c>
+      <c r="AH371" t="n" s="8">
+        <v>1921.0</v>
+      </c>
+      <c r="AI371" t="n" s="8">
+        <v>1971.0</v>
+      </c>
+      <c r="AJ371"/>
     </row>
     <row r="372">
       <c r="A372" t="s" s="7">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B372" t="n" s="8">
         <v>2439.0</v>
@@ -37862,10 +41560,20 @@
       <c r="AF372" t="n" s="8">
         <v>2000.0</v>
       </c>
+      <c r="AG372" t="n" s="8">
+        <v>2007.0</v>
+      </c>
+      <c r="AH372" t="n" s="8">
+        <v>1960.0</v>
+      </c>
+      <c r="AI372" t="n" s="8">
+        <v>2012.0</v>
+      </c>
+      <c r="AJ372"/>
     </row>
     <row r="373">
       <c r="A373" t="s" s="7">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B373" t="n" s="10">
         <v>2.3</v>
@@ -37960,10 +41668,20 @@
       <c r="AF373" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG373" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH373" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI373" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ373"/>
     </row>
     <row r="374">
       <c r="A374" t="s" s="7">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B374" t="n" s="8">
         <v>56.0</v>
@@ -38058,10 +41776,20 @@
       <c r="AF374" t="n" s="8">
         <v>73.0</v>
       </c>
+      <c r="AG374" t="n" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="AH374" t="n" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="AI374" t="n" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="AJ374"/>
     </row>
     <row r="375">
       <c r="A375" t="s" s="7">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B375" t="n" s="8">
         <v>2357.0</v>
@@ -38156,10 +41884,20 @@
       <c r="AF375" t="n" s="8">
         <v>1959.0</v>
       </c>
+      <c r="AG375" t="n" s="8">
+        <v>1921.0</v>
+      </c>
+      <c r="AH375" t="n" s="8">
+        <v>1876.0</v>
+      </c>
+      <c r="AI375" t="n" s="8">
+        <v>1846.0</v>
+      </c>
+      <c r="AJ375"/>
     </row>
     <row r="376">
       <c r="A376" t="s" s="7">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B376" t="n" s="8">
         <v>2413.0</v>
@@ -38254,10 +41992,20 @@
       <c r="AF376" t="n" s="8">
         <v>2032.0</v>
       </c>
+      <c r="AG376" t="n" s="8">
+        <v>1967.0</v>
+      </c>
+      <c r="AH376" t="n" s="8">
+        <v>1921.0</v>
+      </c>
+      <c r="AI376" t="n" s="8">
+        <v>1890.0</v>
+      </c>
+      <c r="AJ376"/>
     </row>
     <row r="377">
       <c r="A377" t="s" s="7">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B377" t="n" s="10">
         <v>1.7</v>
@@ -38352,10 +42100,20 @@
       <c r="AF377" t="n" s="10">
         <v>2.2</v>
       </c>
+      <c r="AG377" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH377" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI377" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ377"/>
     </row>
     <row r="378">
       <c r="A378" t="s" s="7">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B378" t="n" s="8">
         <v>19.0</v>
@@ -38450,10 +42208,20 @@
       <c r="AF378" t="n" s="8">
         <v>24.0</v>
       </c>
+      <c r="AG378" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AH378" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AI378" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ378"/>
     </row>
     <row r="379">
       <c r="A379" t="s" s="7">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B379" t="n" s="8">
         <v>1099.0</v>
@@ -38548,10 +42316,20 @@
       <c r="AF379" t="n" s="8">
         <v>1057.0</v>
       </c>
+      <c r="AG379" t="n" s="8">
+        <v>1075.0</v>
+      </c>
+      <c r="AH379" t="n" s="8">
+        <v>1067.0</v>
+      </c>
+      <c r="AI379" t="n" s="8">
+        <v>1027.0</v>
+      </c>
+      <c r="AJ379"/>
     </row>
     <row r="380">
       <c r="A380" t="s" s="7">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B380" t="n" s="8">
         <v>1118.0</v>
@@ -38646,10 +42424,20 @@
       <c r="AF380" t="n" s="8">
         <v>1081.0</v>
       </c>
+      <c r="AG380" t="n" s="8">
+        <v>1097.0</v>
+      </c>
+      <c r="AH380" t="n" s="8">
+        <v>1088.0</v>
+      </c>
+      <c r="AI380" t="n" s="8">
+        <v>1049.0</v>
+      </c>
+      <c r="AJ380"/>
     </row>
     <row r="381">
       <c r="A381" t="s" s="7">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B381" t="n" s="10">
         <v>1.8</v>
@@ -38744,10 +42532,20 @@
       <c r="AF381" t="n" s="10">
         <v>2.7</v>
       </c>
+      <c r="AG381" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH381" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI381" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ381"/>
     </row>
     <row r="382">
       <c r="A382" t="s" s="7">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B382" t="n" s="8">
         <v>44.0</v>
@@ -38842,10 +42640,20 @@
       <c r="AF382" t="n" s="8">
         <v>76.0</v>
       </c>
+      <c r="AG382" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AH382" t="n" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="AI382" t="n" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="AJ382"/>
     </row>
     <row r="383">
       <c r="A383" t="s" s="7">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B383" t="n" s="8">
         <v>2415.0</v>
@@ -38940,10 +42748,20 @@
       <c r="AF383" t="n" s="8">
         <v>2740.0</v>
       </c>
+      <c r="AG383" t="n" s="8">
+        <v>2809.0</v>
+      </c>
+      <c r="AH383" t="n" s="8">
+        <v>2892.0</v>
+      </c>
+      <c r="AI383" t="n" s="8">
+        <v>2686.0</v>
+      </c>
+      <c r="AJ383"/>
     </row>
     <row r="384">
       <c r="A384" t="s" s="7">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B384" t="n" s="8">
         <v>2459.0</v>
@@ -39038,10 +42856,20 @@
       <c r="AF384" t="n" s="8">
         <v>2816.0</v>
       </c>
+      <c r="AG384" t="n" s="8">
+        <v>2872.0</v>
+      </c>
+      <c r="AH384" t="n" s="8">
+        <v>2949.0</v>
+      </c>
+      <c r="AI384" t="n" s="8">
+        <v>2745.0</v>
+      </c>
+      <c r="AJ384"/>
     </row>
     <row r="385">
       <c r="A385" t="s" s="7">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B385" t="n" s="10">
         <v>4.3</v>
@@ -39136,10 +42964,20 @@
       <c r="AF385" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG385" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH385" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI385" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ385"/>
     </row>
     <row r="386">
       <c r="A386" t="s" s="7">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B386" t="n" s="8">
         <v>525.0</v>
@@ -39234,10 +43072,20 @@
       <c r="AF386" t="n" s="8">
         <v>892.0</v>
       </c>
+      <c r="AG386" t="n" s="8">
+        <v>453.0</v>
+      </c>
+      <c r="AH386" t="n" s="8">
+        <v>317.0</v>
+      </c>
+      <c r="AI386" t="n" s="8">
+        <v>295.0</v>
+      </c>
+      <c r="AJ386"/>
     </row>
     <row r="387">
       <c r="A387" t="s" s="7">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B387" t="n" s="8">
         <v>11789.0</v>
@@ -39332,10 +43180,20 @@
       <c r="AF387" t="n" s="8">
         <v>10015.0</v>
       </c>
+      <c r="AG387" t="n" s="8">
+        <v>10301.0</v>
+      </c>
+      <c r="AH387" t="n" s="8">
+        <v>10425.0</v>
+      </c>
+      <c r="AI387" t="n" s="8">
+        <v>10566.0</v>
+      </c>
+      <c r="AJ387"/>
     </row>
     <row r="388">
       <c r="A388" t="s" s="7">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B388" t="n" s="8">
         <v>12314.0</v>
@@ -39430,10 +43288,20 @@
       <c r="AF388" t="n" s="8">
         <v>10907.0</v>
       </c>
+      <c r="AG388" t="n" s="8">
+        <v>10754.0</v>
+      </c>
+      <c r="AH388" t="n" s="8">
+        <v>10742.0</v>
+      </c>
+      <c r="AI388" t="n" s="8">
+        <v>10861.0</v>
+      </c>
+      <c r="AJ388"/>
     </row>
     <row r="389">
       <c r="A389" t="s" s="7">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B389" t="n" s="10">
         <v>3.2</v>
@@ -39528,10 +43396,20 @@
       <c r="AF389" t="n" s="10">
         <v>2.7</v>
       </c>
+      <c r="AG389" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH389" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI389" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ389"/>
     </row>
     <row r="390">
       <c r="A390" t="s" s="7">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B390" t="n" s="8">
         <v>135.0</v>
@@ -39626,10 +43504,20 @@
       <c r="AF390" t="n" s="8">
         <v>116.0</v>
       </c>
+      <c r="AG390" t="n" s="8">
+        <v>83.0</v>
+      </c>
+      <c r="AH390" t="n" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="AI390" t="n" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="AJ390"/>
     </row>
     <row r="391">
       <c r="A391" t="s" s="7">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B391" t="n" s="8">
         <v>4139.0</v>
@@ -39724,10 +43612,20 @@
       <c r="AF391" t="n" s="8">
         <v>4137.0</v>
       </c>
+      <c r="AG391" t="n" s="8">
+        <v>4166.0</v>
+      </c>
+      <c r="AH391" t="n" s="8">
+        <v>4154.0</v>
+      </c>
+      <c r="AI391" t="n" s="8">
+        <v>4137.0</v>
+      </c>
+      <c r="AJ391"/>
     </row>
     <row r="392">
       <c r="A392" t="s" s="7">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B392" t="n" s="8">
         <v>4274.0</v>
@@ -39822,10 +43720,20 @@
       <c r="AF392" t="n" s="8">
         <v>4253.0</v>
       </c>
+      <c r="AG392" t="n" s="8">
+        <v>4249.0</v>
+      </c>
+      <c r="AH392" t="n" s="8">
+        <v>4234.0</v>
+      </c>
+      <c r="AI392" t="n" s="8">
+        <v>4216.0</v>
+      </c>
+      <c r="AJ392"/>
     </row>
     <row r="393">
       <c r="A393" t="s" s="7">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B393" t="n" s="10">
         <v>1.7</v>
@@ -39920,10 +43828,20 @@
       <c r="AF393" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG393" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH393" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI393" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ393"/>
     </row>
     <row r="394">
       <c r="A394" t="s" s="7">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B394" t="n" s="8">
         <v>31.0</v>
@@ -40018,10 +43936,20 @@
       <c r="AF394" t="n" s="8">
         <v>49.0</v>
       </c>
+      <c r="AG394" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AH394" t="n" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="AI394" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AJ394"/>
     </row>
     <row r="395">
       <c r="A395" t="s" s="7">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B395" t="n" s="8">
         <v>1780.0</v>
@@ -40116,10 +44044,20 @@
       <c r="AF395" t="n" s="8">
         <v>1405.0</v>
       </c>
+      <c r="AG395" t="n" s="8">
+        <v>1390.0</v>
+      </c>
+      <c r="AH395" t="n" s="8">
+        <v>1331.0</v>
+      </c>
+      <c r="AI395" t="n" s="8">
+        <v>1247.0</v>
+      </c>
+      <c r="AJ395"/>
     </row>
     <row r="396">
       <c r="A396" t="s" s="7">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B396" t="n" s="8">
         <v>1811.0</v>
@@ -40214,10 +44152,20 @@
       <c r="AF396" t="n" s="8">
         <v>1454.0</v>
       </c>
+      <c r="AG396" t="n" s="8">
+        <v>1422.0</v>
+      </c>
+      <c r="AH396" t="n" s="8">
+        <v>1364.0</v>
+      </c>
+      <c r="AI396" t="n" s="8">
+        <v>1285.0</v>
+      </c>
+      <c r="AJ396"/>
     </row>
     <row r="397">
       <c r="A397" t="s" s="7">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B397" t="n" s="10">
         <v>3.7</v>
@@ -40312,10 +44260,20 @@
       <c r="AF397" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG397" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH397" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI397" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ397"/>
     </row>
     <row r="398">
       <c r="A398" t="s" s="7">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B398" t="n" s="8">
         <v>122.0</v>
@@ -40410,10 +44368,20 @@
       <c r="AF398" t="n" s="8">
         <v>150.0</v>
       </c>
+      <c r="AG398" t="n" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="AH398" t="n" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="AI398" t="n" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="AJ398"/>
     </row>
     <row r="399">
       <c r="A399" t="s" s="7">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B399" t="n" s="8">
         <v>3156.0</v>
@@ -40508,10 +44476,20 @@
       <c r="AF399" t="n" s="8">
         <v>3543.0</v>
       </c>
+      <c r="AG399" t="n" s="8">
+        <v>3633.0</v>
+      </c>
+      <c r="AH399" t="n" s="8">
+        <v>3642.0</v>
+      </c>
+      <c r="AI399" t="n" s="8">
+        <v>3676.0</v>
+      </c>
+      <c r="AJ399"/>
     </row>
     <row r="400">
       <c r="A400" t="s" s="7">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B400" t="n" s="8">
         <v>3278.0</v>
@@ -40606,10 +44584,20 @@
       <c r="AF400" t="n" s="8">
         <v>3693.0</v>
       </c>
+      <c r="AG400" t="n" s="8">
+        <v>3728.0</v>
+      </c>
+      <c r="AH400" t="n" s="8">
+        <v>3733.0</v>
+      </c>
+      <c r="AI400" t="n" s="8">
+        <v>3774.0</v>
+      </c>
+      <c r="AJ400"/>
     </row>
     <row r="401">
       <c r="A401" t="s" s="7">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B401" t="n" s="10">
         <v>1.8</v>
@@ -40704,10 +44692,20 @@
       <c r="AF401" t="n" s="10">
         <v>2.0</v>
       </c>
+      <c r="AG401" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AH401" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI401" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ401"/>
     </row>
     <row r="402">
       <c r="A402" t="s" s="7">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B402" t="n" s="8">
         <v>16.0</v>
@@ -40802,10 +44800,20 @@
       <c r="AF402" t="n" s="8">
         <v>17.0</v>
       </c>
+      <c r="AG402" t="n" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="AH402" t="n" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="AI402" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AJ402"/>
     </row>
     <row r="403">
       <c r="A403" t="s" s="7">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B403" t="n" s="8">
         <v>864.0</v>
@@ -40900,10 +44908,20 @@
       <c r="AF403" t="n" s="8">
         <v>823.0</v>
       </c>
+      <c r="AG403" t="n" s="8">
+        <v>871.0</v>
+      </c>
+      <c r="AH403" t="n" s="8">
+        <v>833.0</v>
+      </c>
+      <c r="AI403" t="n" s="8">
+        <v>843.0</v>
+      </c>
+      <c r="AJ403"/>
     </row>
     <row r="404">
       <c r="A404" t="s" s="7">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B404" t="n" s="8">
         <v>880.0</v>
@@ -40998,10 +45016,20 @@
       <c r="AF404" t="n" s="8">
         <v>840.0</v>
       </c>
+      <c r="AG404" t="n" s="8">
+        <v>887.0</v>
+      </c>
+      <c r="AH404" t="n" s="8">
+        <v>850.0</v>
+      </c>
+      <c r="AI404" t="n" s="8">
+        <v>862.0</v>
+      </c>
+      <c r="AJ404"/>
     </row>
     <row r="405">
       <c r="A405" t="s" s="7">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B405" t="n" s="10">
         <v>2.2</v>
@@ -41096,10 +45124,20 @@
       <c r="AF405" t="n" s="10">
         <v>2.3</v>
       </c>
+      <c r="AG405" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AH405" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI405" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ405"/>
     </row>
     <row r="406">
       <c r="A406" t="s" s="7">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B406" t="n" s="8">
         <v>75.0</v>
@@ -41194,10 +45232,20 @@
       <c r="AF406" t="n" s="8">
         <v>72.0</v>
       </c>
+      <c r="AG406" t="n" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="AH406" t="n" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="AI406" t="n" s="8">
+        <v>64.0</v>
+      </c>
+      <c r="AJ406"/>
     </row>
     <row r="407">
       <c r="A407" t="s" s="7">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B407" t="n" s="8">
         <v>3397.0</v>
@@ -41292,10 +45340,20 @@
       <c r="AF407" t="n" s="8">
         <v>3005.0</v>
       </c>
+      <c r="AG407" t="n" s="8">
+        <v>3013.0</v>
+      </c>
+      <c r="AH407" t="n" s="8">
+        <v>2944.0</v>
+      </c>
+      <c r="AI407" t="n" s="8">
+        <v>2921.0</v>
+      </c>
+      <c r="AJ407"/>
     </row>
     <row r="408">
       <c r="A408" t="s" s="7">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B408" t="n" s="8">
         <v>3472.0</v>
@@ -41390,10 +45448,20 @@
       <c r="AF408" t="n" s="8">
         <v>3077.0</v>
       </c>
+      <c r="AG408" t="n" s="8">
+        <v>3068.0</v>
+      </c>
+      <c r="AH408" t="n" s="8">
+        <v>3002.0</v>
+      </c>
+      <c r="AI408" t="n" s="8">
+        <v>2985.0</v>
+      </c>
+      <c r="AJ408"/>
     </row>
     <row r="409">
       <c r="A409" t="s" s="7">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B409" t="n" s="10">
         <v>1.7</v>
@@ -41488,10 +45556,20 @@
       <c r="AF409" t="n" s="10">
         <v>1.9</v>
       </c>
+      <c r="AG409" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH409" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI409" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ409"/>
     </row>
     <row r="410">
       <c r="A410" t="s" s="7">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B410" t="n" s="8">
         <v>22.0</v>
@@ -41586,10 +45664,20 @@
       <c r="AF410" t="n" s="8">
         <v>24.0</v>
       </c>
+      <c r="AG410" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AH410" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AI410" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AJ410"/>
     </row>
     <row r="411">
       <c r="A411" t="s" s="7">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B411" t="n" s="8">
         <v>1267.0</v>
@@ -41684,10 +45772,20 @@
       <c r="AF411" t="n" s="8">
         <v>1224.0</v>
       </c>
+      <c r="AG411" t="n" s="8">
+        <v>1153.0</v>
+      </c>
+      <c r="AH411" t="n" s="8">
+        <v>1098.0</v>
+      </c>
+      <c r="AI411" t="n" s="8">
+        <v>1064.0</v>
+      </c>
+      <c r="AJ411"/>
     </row>
     <row r="412">
       <c r="A412" t="s" s="7">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B412" t="n" s="8">
         <v>1289.0</v>
@@ -41782,10 +45880,20 @@
       <c r="AF412" t="n" s="8">
         <v>1248.0</v>
       </c>
+      <c r="AG412" t="n" s="8">
+        <v>1176.0</v>
+      </c>
+      <c r="AH412" t="n" s="8">
+        <v>1120.0</v>
+      </c>
+      <c r="AI412" t="n" s="8">
+        <v>1088.0</v>
+      </c>
+      <c r="AJ412"/>
     </row>
     <row r="413">
       <c r="A413" t="s" s="7">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B413" t="n" s="10">
         <v>4.4</v>
@@ -41880,10 +45988,20 @@
       <c r="AF413" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG413" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH413" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI413" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ413"/>
     </row>
     <row r="414">
       <c r="A414" t="s" s="7">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B414" t="n" s="8">
         <v>200.0</v>
@@ -41978,10 +46096,20 @@
       <c r="AF414" t="n" s="8">
         <v>304.0</v>
       </c>
+      <c r="AG414" t="n" s="8">
+        <v>158.0</v>
+      </c>
+      <c r="AH414" t="n" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="AI414" t="n" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="AJ414"/>
     </row>
     <row r="415">
       <c r="A415" t="s" s="7">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B415" t="n" s="8">
         <v>4397.0</v>
@@ -42076,10 +46204,20 @@
       <c r="AF415" t="n" s="8">
         <v>3622.0</v>
       </c>
+      <c r="AG415" t="n" s="8">
+        <v>3662.0</v>
+      </c>
+      <c r="AH415" t="n" s="8">
+        <v>3613.0</v>
+      </c>
+      <c r="AI415" t="n" s="8">
+        <v>3572.0</v>
+      </c>
+      <c r="AJ415"/>
     </row>
     <row r="416">
       <c r="A416" t="s" s="7">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B416" t="n" s="8">
         <v>4597.0</v>
@@ -42174,10 +46312,20 @@
       <c r="AF416" t="n" s="8">
         <v>3926.0</v>
       </c>
+      <c r="AG416" t="n" s="8">
+        <v>3820.0</v>
+      </c>
+      <c r="AH416" t="n" s="8">
+        <v>3729.0</v>
+      </c>
+      <c r="AI416" t="n" s="8">
+        <v>3686.0</v>
+      </c>
+      <c r="AJ416"/>
     </row>
     <row r="417">
       <c r="A417" t="s" s="7">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B417" t="n" s="10">
         <v>3.1</v>
@@ -42272,10 +46420,20 @@
       <c r="AF417" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG417" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH417" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI417" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ417"/>
     </row>
     <row r="418">
       <c r="A418" t="s" s="7">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B418" t="n" s="8">
         <v>52.0</v>
@@ -42370,10 +46528,20 @@
       <c r="AF418" t="n" s="8">
         <v>94.0</v>
       </c>
+      <c r="AG418" t="n" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="AH418" t="n" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="AI418" t="n" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="AJ418"/>
     </row>
     <row r="419">
       <c r="A419" t="s" s="7">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B419" t="n" s="8">
         <v>1635.0</v>
@@ -42468,10 +46636,20 @@
       <c r="AF419" t="n" s="8">
         <v>1476.0</v>
       </c>
+      <c r="AG419" t="n" s="8">
+        <v>1470.0</v>
+      </c>
+      <c r="AH419" t="n" s="8">
+        <v>1470.0</v>
+      </c>
+      <c r="AI419" t="n" s="8">
+        <v>1442.0</v>
+      </c>
+      <c r="AJ419"/>
     </row>
     <row r="420">
       <c r="A420" t="s" s="7">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B420" t="n" s="8">
         <v>1687.0</v>
@@ -42566,10 +46744,20 @@
       <c r="AF420" t="n" s="8">
         <v>1570.0</v>
       </c>
+      <c r="AG420" t="n" s="8">
+        <v>1525.0</v>
+      </c>
+      <c r="AH420" t="n" s="8">
+        <v>1523.0</v>
+      </c>
+      <c r="AI420" t="n" s="8">
+        <v>1492.0</v>
+      </c>
+      <c r="AJ420"/>
     </row>
     <row r="421">
       <c r="A421" t="s" s="7">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B421" t="n" s="10">
         <v>8.2</v>
@@ -42664,10 +46852,20 @@
       <c r="AF421" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG421" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH421" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI421" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ421"/>
     </row>
     <row r="422">
       <c r="A422" t="s" s="7">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B422" t="n" s="8">
         <v>6555.0</v>
@@ -42762,10 +46960,20 @@
       <c r="AF422" t="n" s="8">
         <v>6139.0</v>
       </c>
+      <c r="AG422" t="n" s="8">
+        <v>3731.0</v>
+      </c>
+      <c r="AH422" t="n" s="8">
+        <v>2690.0</v>
+      </c>
+      <c r="AI422" t="n" s="8">
+        <v>2659.0</v>
+      </c>
+      <c r="AJ422"/>
     </row>
     <row r="423">
       <c r="A423" t="s" s="7">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B423" t="n" s="8">
         <v>72901.0</v>
@@ -42860,10 +47068,20 @@
       <c r="AF423" t="n" s="8">
         <v>71985.0</v>
       </c>
+      <c r="AG423" t="n" s="8">
+        <v>74089.0</v>
+      </c>
+      <c r="AH423" t="n" s="8">
+        <v>75480.0</v>
+      </c>
+      <c r="AI423" t="n" s="8">
+        <v>76210.0</v>
+      </c>
+      <c r="AJ423"/>
     </row>
     <row r="424">
       <c r="A424" t="s" s="7">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B424" t="n" s="8">
         <v>79456.0</v>
@@ -42958,6 +47176,16 @@
       <c r="AF424" t="n" s="8">
         <v>78124.0</v>
       </c>
+      <c r="AG424" t="n" s="8">
+        <v>77820.0</v>
+      </c>
+      <c r="AH424" t="n" s="8">
+        <v>78170.0</v>
+      </c>
+      <c r="AI424" t="n" s="8">
+        <v>78869.0</v>
+      </c>
+      <c r="AJ424"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -42968,7 +47196,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:13:56 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:37:21 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
